--- a/evaluation set/Eval Set Results.xlsx
+++ b/evaluation set/Eval Set Results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyuliu/Desktop/Emory Academics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/espaek/PycharmProjects/caap/evaluation set/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9225276C-E6D3-8E40-9EC6-4F2BEB36D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2DCC30-284A-9348-ABDB-5915671DA348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="25060" windowHeight="17440" xr2:uid="{8F0AFA9C-0394-BE4C-A8A2-8033C0AF2216}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8F0AFA9C-0394-BE4C-A8A2-8033C0AF2216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t xml:space="preserve">Assertiveness-based Agent Communication for a Personalized Medicine on Medical Imaging Diagnosis </t>
   </si>
@@ -50,15 +50,9 @@
     <t xml:space="preserve">Clinical Decision Support System, Healthcare, Breast Cancer </t>
   </si>
   <si>
-    <t>Definitions Generated by CAAP - Experts</t>
-  </si>
-  <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>Keywords and Definitions Generated by CAAP - Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">InstruMentAR: Auto-Generation of Augmented Reality Tutorials for Operating Digital Instruments Through Recording Embodied Demonstration </t>
   </si>
   <si>
@@ -153,13 +147,234 @@
   </si>
   <si>
     <t>Who Do the Socially Mobile Vote For? A Longitudinal Analysis of Intergenerational Mobility and Political Preferences</t>
+  </si>
+  <si>
+    <t>royalty, loo, generative, creators, srs, copyright, fish, paintings</t>
+  </si>
+  <si>
+    <t>royalty: In the context of the paper, "royalties" refer to the compensation or payment that copyright owners receive for the use of their copyrighted data in training generative AI systems. The royalties are distributed among the copyright owners based on their contributions to the generation of AI-generated content. The Shapley Royalty Share (SRS) framework in the paper determines the fair distribution of royalties among copyright owners by quantifying their contributions using the Shapley value from cooperative game theory.loo: LOO stands for leave-one-out and is a method used in machine learning for evaluating the impact of individual data sources. It calculates the model performance change when one data source is excluded from the full training set. This method helps to assess the contribution of each data source to the overall model performance.generative: At a novice, beginner level, "generative" refers to the capability of artificial intelligence systems to create new content, such as text, images, or videos, based on existing data it has been trained on. Generative AI models can produce outputs that mimic human creation, allowing them to generate content with sophistication comparable to that of human artists.creators: In the context of copyright and generative AI models, creators are individuals or entities that contribute original content, such as text, images, videos, or other media, that is used to train AI models. These creators hold the copyright to the training data they provide and are entitled to compensation or royalties for the use of their copyrighted material in generative AI systems.srs: The "Shapley Royalty Share" (SRS) is a concept used in cooperative game theory to determine a fair distribution of revenue among copyright owners based on their contributions to the generation of AI-generated content. It calculates the royalty share for each copyright owner by measuring their utility in contributing to the generation of the content. The SRS ensures that copyright owners receive compensation proportional to their contributions, fostering fair revenue sharing in generative AI models.copyright: Copyright is a legal concept that grants the creator of an original work exclusive rights to its use and distribution, usually for a limited period of time, with the goal of encouraging the creation of new works. This protection covers various forms of creative expression, such as literature, music, art, and software. The basic idea behind copyright is to provide the creator with the right to control how their work is used by others, ensuring that they can benefit from their creations financially and protect their intellectual property from unauthorized use.fish: Fish are aquatic vertebrates that have gills for breathing, fins for swimming, and scales covering their bodies. They are cold-blooded animals that live in water and are known for their wide diversity in size, shape, and color. Fish play a crucial role in aquatic ecosystems and are a vital food source for humans and other animals.paintings: Paintings are works of visual art created by applying paint, pigment, or other artistic materials to a surface, typically canvas, paper, or wood. Paintings can encompass various styles, techniques, and subjects, ranging from abstract art to realistic representations of landscapes, figures, still life, and more. Artists use paintings as a medium to express their ideas, emotions, and creative vision, conveying messages and inspiring interpretations through the use of color, composition, and brushstrokes.</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Novice Definitions</t>
+  </si>
+  <si>
+    <t>royalty: Royalty refers to the compensation or payment that copyright owners receive for the authorized use of their copyrighted material. In the context of generative artificial intelligence (AI) systems, royalties are distributed among copyright owners based on their contributions to the creation of AI-generated content. The royalty share is determined by quantifying each owner's contribution using the Shapley value framework, offering a fair and interpretable distribution of revenue generated from the AI-generated content among all copyright holders.loo: LOO stands for Leave-one-out, a method used in machine learning to evaluate the impact of excluding a single data point (or participant) from the training or evaluation set. It involves iteratively training or evaluating the model by leaving out one data point each time to assess the significance of each individual data point's contribution or the effect of its absence on the model's performance.generative: Generative, in the context of artificial intelligence, refers to systems or models that are designed to create new content such as text, images, or videos based on patterns and information learned from existing data. Generative AI systems are trained on large datasets to produce new content that is original and not directly copied from the training data. These systems have the capability to generate content that mimics human-created material, providing a sophisticated approach to content creation.creators: In the context of the paper, the term "creators" refers to individuals or entities that produce original content, such as artwork, logos, music, or other creative materials. These creators contribute their copyrighted data to train generative AI systems, which then use this data to generate new content. The creators hold the copyright to their original work and are entitled to compensation for their contributions to the generative AI models. In this framework, creators are essential stakeholders in the process of training AI models and generating AI-generated content.srs: SRS, or Shapley Royalty Share, is a framework based on cooperative game theory that quantifies the fair compensation individual contributors should receive for their data contributions in training generative AI models. It calculates the royalties each copyright owner should receive based on their incremental impact on the model's utility, accounting for all possible combinations of data sources. SRS ensures a principled and equitable distribution of revenues among copyright owners, reflecting the unique significance of each contributor's data in generating AI-generated content.copyright: Copyright is a legal concept that grants exclusive rights to the creators of original works, such as literary, artistic, musical, and intellectual creations. This protection allows the creators to control the reproduction, distribution, adaptation, and public display of their works. Copyright law aims to balance the interests of creators to benefit from their creations with the public interest in accessing and building upon existing works. Copyright protection typically lasts for a specific period, after which the work enters the public domain and can be freely used by anyone.fish: In the context of the study discussed in the research paper, "fish" would refer to aquatic animals belonging to the class Osteichthyes or Chondrichthyes, typically cold-blooded vertebrates that live in water, breathe through gills, and have fins for swimming. In particular, the term "fish" may be used to describe images or representations of various species categorized under this classification, possibly within the Aquarium Fish or Other Fish categories in the CIFAR100 dataset as mentioned in the paper.paintings: Paintings are visual artistic creations made by applying pigments to a surface, typically a canvas, using various techniques such as brushstrokes. Paintings can depict a wide range of subjects, from landscapes and still life to abstract concepts and portraits, and they are created in various styles such as realism, impressionism, and surrealism. The medium can include oil paints, watercolors, acrylics, or other materials, and the artwork can convey ideas, emotions, and aesthetics through color, form, and composition.</t>
+  </si>
+  <si>
+    <t>Proficient Definitions</t>
+  </si>
+  <si>
+    <t>Expert Definitions</t>
+  </si>
+  <si>
+    <t>royalty: Royalty refers to a payment made by one party, known as the licensee, to another party, known as the licensor, for the use of intellectual property or resources owned by the licensor. The payment is usually made based on a percentage of revenue generated from the use of the intellectual property, such as patents, copyrights, trademarks, or other creative works. Royalties are typically paid in exchange for the rights to use, reproduce, distribute, or sell the intellectual property. In the context of generative AI models and copyrighted data, royalties are payments made to copyright owners for the use of their data in training the AI models and generating new content.loo: The leave-one-out score (LOO) is a method used to assess the contribution of individual data sources in a dataset by measuring the change in model performance when one specific data source is excluded from the training set. This approach provides insights into the impact of each data point on the overall model's effectiveness by evaluating its influence on the model's predictive capabilities when it is removed from the training process. The LOO score is a simple and intuitive way to analyze the significance of individual data sources in machine learning models.generative: Generative models, particularly in the context of artificial intelligence (AI), refer to algorithms that are trained on a dataset to generate new, original data that resembles the original data distribution. These models learn the underlying patterns and structures of the training data and can produce novel content such as text, images, videos, or other media that did not exist in the original dataset. Generative models are a subset of machine learning models that focus on creating new, rather than predicting existing, data points. The output of generative models is often used in applications such as creative artwork generation, text synthesis, and content creation.creators: In the context of the paper "An Economic Solution to Copyright Challenges of Generative AI," copyright owners who contribute training data to generative AI models are referred to as "creators." These creators are individuals or entities that own the copyright of specific training data used to train the generative AI models. They are essential in the process of generating new pieces of text, images, videos, or other media through AI algorithms. The framework proposed in the paper aims to fairly compensate these creators for their contributions to the creation of AI-generated content.srs: The Shapley Royalty Share (SRS) is a metric calculated based on the Shapley value from cooperative game theory to determine the fair distribution of revenue among copyright owners in generative AI models. It measures the contribution of each copyright owner's data to the generation of AI-generated content. The SRS for each copyright owner reflects the proportion of revenue they should receive, considering their data's impact on the model's performance in generating content. The SRS ensures an equitable distribution of royalties among copyright owners, fostering collaboration between AI developers and data contributors.copyright: Copyright is a legal concept that grants the creator of original works exclusive rights over their creations. These creations can include literary, artistic, musical, or other intellectual works. The creator has the right to control how their work is used, reproduced, distributed, and adapted. Copyright protection ensures that creators can benefit from their creations and prevents others from using their work without permission. Copyright laws vary by country, but they generally provide creators with the exclusive right to reproduce their work, produce derivative works based on the original, distribute copies of the work, and display or perform the work publicly.fish: At an expert level, "fish" can be defined as a diverse group of aquatic vertebrates belonging to the taxonomic group known as "Actinopterygii" or "Chondrichthyes". Fish are characterized by their aquatic habitat, gill-bearing respiratory system, fins for swimming, and scales covering their bodies. They exhibit a wide range of anatomical and physiological adaptations that enable them to thrive in various aquatic environments. Fish play a crucial ecological role as primary consumers in aquatic food chains and are economically important for both commercial and recreational fisheries.paintings: Paintings are visual art forms created by applying pigment to a surface, such as canvas, paper, or wood, using various techniques such as brushwork, strokes, and textures. They can depict a wide range of subjects, including landscapes, portraits, still life, abstract concepts, or imaginative scenes. Paintings serve as a medium of artistic expression, conveying emotions, stories, and ideas through color, composition, and form. Throughout history, paintings have played a significant role in cultural, social, and political contexts, capturing moments in time and reflecting the creativity and vision of the artists who create them.</t>
+  </si>
+  <si>
+    <t>mindset, comparing, political, hiring, mismatched, intuitions, comparison, theorist</t>
+  </si>
+  <si>
+    <t>mindset: A mindset refers to a set of attitudes, beliefs, or dispositions that shape how an individual approaches or perceives certain situations, problems, or tasks. It can influence one's thoughts, behavior, and decision-making. In the context of the mentioned academic paper, a "modeling mindset"comparing: Comparing is the action of examining the similarities and differences between two or more things or situations to determine their relative qualities, characteristics, or differences. In the context of academic or theoretical work, comparisons are often made to highlight contrasts, identify patterns, or make judgments regarding the superiority, effectiveness, orpolitical: At a basic level, "political" refers to anything related to government, governance, and decision-making processes within a society. It involves discussions, activities, or structures concerned with power, authority, and the distribution of resources, as well as the development and implementation of policies and laws. Politics typicallyhiring: Hiring is the process of engaging the services of an individual or group for a specific purpose, typically employment in an organization or business. It involves recruiting, evaluating, and selecting candidates to fill job openings within a company or organization. The hiring process usually includes job posting, interviewing, background checks,mismatched: In the context of the provided text, mismatched refers to a type of unfair comparison made in political theory. It occurs when the arrangements being compared are assumed to operate within different contexts. For example, if two social systems are compared and one system is idealized with morally perfect actors while theintuitions: Intuitions are immediate feelings or understandings about something without the need for conscious reasoning. They are often considered to be instinctive or inherent responses to situations or information, based on personal experiences, beliefs, or values. In the context of academic argumentation or philosophical discourse, intucomparison: A comparison is the act of examining the similarities and differences between two or more things to determine their relationships, quality, or performance relative to each other. In a comparison, one analyzes aspects of multiple options to reach a conclusion on which one is better, more suitable, or stands out in some waytheorist: A theorist is an individual who engages in theoretical analysis and speculation in a particular field of study, especially in the realm of social sciences and humanities. Theorists often develop, explore, and communicate theories or abstract ideas about how something works, the structure of a system, or the underlying</t>
+  </si>
+  <si>
+    <t>mindset: In the context of the paper discussed, a "mindset" refers to a set of intellectual dispositions or approaches that shape an individual’s thinking processes and perceptions. The "modeling mindset" is a particular orientation toward constructing and analyzing models that involves dispositions such as clearly specifying essential elements,comparing: Comparing is the act of examining the similarities and differences between entities or scenarios to discern important features or qualities. In the realm of political theory, comparisons are often made between different social and political structures, such as democratic and nondemocratic systems, to illuminate the advantages or disadvantages of each. Bypolitical: In a political context, the term "political" refers to activities, actions, or structures related to governance, public policy, laws, and decision-making processes within a society. It also involves the interactions, negotiations, and power dynamics among individuals and groups as they seek to influence these processes. Politicalhiring: At an intermediate, proficient level, the term "hiring" refers to the process by which an organization or individual selects and employs a suitable candidate for a job or position. This process typically involves advertising the job opening, receiving applications, interviewing candidates, selecting the most qualified individual, and offering themmismatched: In the context of making fair comparisons in political theory, a mismatched comparison occurs when the theorist compares two scenarios, but the arrangements under consideration are assumed to operate within different contexts. This invalid comparison arises when the features are not held constant between the alternatives being compared. The theorists fail tointuitions: "In the context of normative political theory and argumentation, intuitions are immediate judgments or beliefs that people hold based on their understanding or perception of certain situations or concepts. These intuitions are often used as starting points for discussions and evaluations, and they can shape individuals' preferencescomparison: In the context of political theory and academic discourse, a comparison is the act of analyzing and contrasting distinct scenarios, ideologies, or institutions to draw insights on their relative merits, demerits, or applicability. This involves identifying similarities and differences between the subjects under scrutiny to evaluate and make informed judgmentstheorist: In political theory, a theorist is an individual who engages in theoretical inquiries, abstract reasoning, and critical analysis to develop arguments about the organization of societies, the nature of politics, and the principles of justice. Theorists seek to understand political phenomena, evaluate normative claims, and provide</t>
+  </si>
+  <si>
+    <t>mindset: In this context, a mindset refers to a structured and intentional approach taken by a theorist when constructing and analyzing models in normative political theory, particularly when making comparisons between different scenarios. It involves a set of dispositions, including:
+1. A disposition to clearly and consistently specify the important aspectscomparing: Comparing involves the process of examining and highlighting the similarities and differences between two or more entities, such as ideas, scenarios, or structures, to discern which is preferable or more suitable based on certain criteria. In political theory, comparisons often involve assessing hypothetical situations or institutional arrangements to determine which is morallypolitical: In political theory, like in the context of Cohen's argument in the presented text, the term "political" refers to the domain of thought and action concerned with political institutions, power relations, governance, and decision-making processes within a society. It involves the study and evaluation of various social and politicalhiring: In the context of the example provided from the academic paper, "hiring" refers to the process where a committee of three individuals is tasked with selecting one of two job applicants, A and B, to be hired. The hiring decision in this scenario is made using a majority rule, where themismatched: In the context of academic discussions, a mismatched comparison occurs when a theorist compares institutional arrangements assuming different contexts. The error entails assessing two alternative scenarios with changes in contextual factors that should ideally have been held constant to make a fair and accurate evaluation. Defining this error disentangles mixedintuitions: In scholarly discussions, "intuitions" often refer to immediate, unreasoned, and noninferential judgments or beliefs that individuals have about ethical principles, political arrangements, or other normative matters. These intuitions may serve as foundational elements in moral or political theorizing,comparison: In the context of the paper "Making Fair Comparisons in Political Theory," a comparison is a process wherein normative political theorists juxtapose hypothetical scenarios or models to scrutinize the desirability of one social or political arrangement over another. Comparisons involve examining the structural and contextual components of these scenariostheorist: A theorist is a scholar who engages in the study, creation, analysis, and discussion of theories in a particular field of study or practice. In political theory, for example, a theorist would examine political concepts and structures and develop arguments or frameworks to analyze and interpret political phenomena. The</t>
+  </si>
+  <si>
+    <t>batch, alpaca, skewness, constraints, encoders, decoder, scheduling, decoding</t>
+  </si>
+  <si>
+    <t>batch: At a basic level, a batch is a group of input samples processed together in a single computation. In the context of machine learning or natural language processing, a batch typically consists of multiple data points, such as sentences or sequences, that are fed to a model simultaneously during training or inference to improve computational efficiency. By processing data in batches, a system canalpaca: An "alpaca" is a South American mammal known for its soft woolly coat. Alpacas are domesticated animals primarily raised for their fibers, which are used in textile production. They are related to llamas and are commonly found in countries like Peru, Bolivia, and Chile. Alpacas are known for their gentle natureskewness: Skewness is a statistical measure that describes the asymmetry of the distribution of a set of data around its mean. It indicates whether the data is skewed to the left, meaning it is more concentrated towards the right of the distribution, or to the right, meaning it is more concentrated towards the left of the distribution. Skewness is important inconstraints: Constraints refer to limitations or restrictions that must be considered or adhered to when solving a problem or designing a system. In the context of ExeGPT, constraints are specific requirements or boundaries that the system must operate within, such as latency constraints that determine the maximum time allowed for processing a specific operation. These constraints guide the decision-making process within the systemencoders: At a beginner level, encoders can be thought of as components in a machine learning or natural language processing system that transform input data such as text, images, or other forms of information into a different representation that is better suited for a specific task, such as classification or translation. Encoders are commonly used in various deep learning models to process and extractdecoder: At a beginner level, in the context of natural language processing and neural networks, a decoder is a component of a model that is responsible for generating an output based on the information processed by the encoder. Think of it as a part of a system that takes encoded information and interprets it to produce a meaningful output, such as generating a text response in ascheduling: Scheduling is the process of determining when, where, and how tasks or operations should be performed based on specific criteria, constraints, or objectives. In the context of computing and systems, scheduling often refers to assigning resources such as processing units, memory, or network bandwidth to different tasks or processes in an efficient manner to optimize performance metrics such as throughput, latencydecoding: Decoding in the context of natural language processing (NLP) refers to the process of generating an output sequence, such as translated text or summarized content, based on a given input sequence. In the context of large language models (LLMs) like Transformers, decoding involves generating responses or predictions using the learned model by processing input data through the decoding layers.</t>
+  </si>
+  <si>
+    <t>batch: In the context of Machine Learning and Artificial Intelligence, a batch refers to a set of input data samples that are processed together in one forward/backward pass through the neural network. Batching is commonly used in training deep learning models to improve efficiency and leverage parallel processing capabilities of modern hardware. By processing multiple data samples simultaneously, neural networks can process data more efficientlyalpaca: At an intermediate, proficient level, an alpaca is a domesticated South American mammal similar to a llama but smaller, with shaggy hair and soft wool, commonly bred for its fibers. Alpacas are raised primarily for their wool, which is known for its softness and warmth. They are native to the Andes Mountainsskewness: Skewness is a statistical measure that quantifies the asymmetry in the distribution of a dataset. It indicates whether the data is symmetrically distributed around the mean or if it is skewed to one side. Positive skewness means that the tail of the distribution is longer on the right side of the peak, while negative skewness indicates a longer tail onconstraints: In computer science and optimization, a constraint is a limitation or condition set on the variables in a mathematical or computational model. Constraints restrict the possible values or relationships between variables in the model. Constraints can be of different types, such as linear constraints in linear programming, boundary conditions in mathematical models, or logical constraints in constraint satisfaction problems. The role of constraints isencoders: In the context of language models (LLMs), an encoder refers to a part of the LLM architecture responsible for processing input sequences of data, such as words, phrases, or sentences. The encoder transforms the input data into a format that the model can understand and process further. It typically involves tasks like tokenization, embedding, and transforming the inputdecoder: At an intermediate, proficient level, a decoder in the context of Large Language Models (LLMs) refers to a component of the model architecture that interprets the representations or context learned by the encoder and generates an output sequence. In the context of NLP tasks like language translation and text generation, the decoder takes the encoded information and autonomously generates sequences wordscheduling: Scheduling is the process of determining when various tasks or operations should take place within a system or project. In the context of computing, scheduling often refers to the assignment of resources (such as CPU time and memory) to different processes or jobs in a computer system. Scheduling helps to optimize the utilization of resources, improve efficiency, and meet performance objectives.decoding: Decoding is a crucial step in natural language processing (NLP) tasks, particularly in the context of large language models (LLMs). In the decoding phase, the model generates text or tokens based on the learned patterns and the input it has been given. In LLMs, decoding involves the sequential generation of tokens, usually following an autoregressive</t>
+  </si>
+  <si>
+    <t>batch: In the context of machine learning and deep learning algorithms, a batch refers to a subset of training examples or data points that are processed together by the model during training or inference. Batching is a common practice in training deep learning models, where data is divided into smaller groups or batches to improve computational efficiency and reduce latency. Each batch consists of a fixed numberalpaca: In NLP, "alpaca" is a dataset used for evaluation purposes to test LLM (Large Language Models) inference systems. The Alpaca dataset is specifically designed for conversational question-answering tasks. It contains a collection of conversational dialogues and corresponding question-answer pairs, which are utilized for training and evaluating Lskewness: Skewness is a statistical measure that quantifies the asymmetry of the probability distribution of a random variable. It indicates the lack of symmetry in the distribution of values around its mean. A distribution is considered to be symmetric if the data points are evenly distributed around the mean, resulting in a skewness value of zero. Positive skewness indicates that theconstraints: In a technical sense, constraints refer to limitations or restrictions imposed on a system or a process. In the context of optimization problems, constraints are conditions that must be satisfied when finding the optimal solution. For instance, in the context of ExeGPT, a distributed system designed for constraint-aware LLM inference, constraints could refer to conditions like the maximum latencyencoders: Encoders are components of large language models that are responsible for processing input sequences of text data. They transform raw input data into meaningful representations in the form of vectors that can be understood and manipulated by the model. In the context of natural language processing, encoders play a crucial role in converting text input into numerical representations that can be further processed by thedecoder: In the context of large language models (LLMs) in natural language processing, a decoder is a component responsible for generating output sequences given the input. In Transformer-based models, the decoder includes layers that perform tasks such as self-attention, cross-attention, and feedforward networks to generate the output based on the encoded input. It typically operates in anscheduling: Scheduling in the context of computing systems refers to the process of efficiently allocating and managing resources, such as CPU time, memory, or storage, to perform tasks or processes in an organized and optimized manner. It involves determining the order and timeline in which tasks are executed to maximize performance metrics such as throughput, latency, and resource utilization. Scheduling algorithms aimdecoding: Decoding is a critical process in natural language processing (NLP) and large language model (LLM) inference. In the context of LLMs, decoding refers to the generation of output text based on the input text or sequence. This process typically involves sampling or selecting the next token in the output sequence based on the internal state of the model and</t>
+  </si>
+  <si>
+    <t>downwards, voting, adulthood, sociological, intergenerational, social, political</t>
+  </si>
+  <si>
+    <t>downwards: Downwards typically refers to movement that is in a lower or lesser direction or position. In the context of social mobility, the term "downwards" often refers to a situation where an individual moves from a higher social class to a lower one in society. This movement may entail a decline in occupational status, income level, or social standing relative to one's previous position.voting: Voting is a method used to make a decision or express a choice, often in the context of elections or decision-making processes within a group or organization. In the context of elections, voting usually involves individuals selecting their preferred candidate or party to represent them in a governmental body through a vote. The candidate or party with the most votes typically wins the election. Voting is a fundamental democratic process that allows individuals to have a say in shaping the policies and direction of their society.adulthood: Adulthood refers to the stage of life following adolescence, typically characterized by physical maturity, independence, and the assumption of adult responsibilities, such as establishing a career, maintaining personal relationships, and possibly starting a family. This phase is often associated with greater emotional and cognitive maturity, as well as societal recognition of one's adult status. In many cultures, adulthood is legally defined by a certain age, marking the transition from childhood to full legal rights and responsibilities.sociological: At a basic level, "sociological" refers to something related to the field of sociology, which is a social science that studies human society and social behavior. It focuses on understanding the ways in which society is structured, the interactions between individuals within society, and the impact of social institutions on human behavior. In the context of the paper provided, "sociological" refers to the analysis and investigation of social phenomena within the framework of sociology.intergenerational: Intergenerational means relating to the different generations within a family or between different generations. It often refers to interactions, relationships, or phenomena that occur between individuals from different age groups within the same family or across different generations.social: Social refers to interactions and relationships between people, or the way individuals interact with and influence one another within a community or society. It involves behaviors and activities associated with human social structures, relationships, norms, and institutions. Social factors can encompass aspects such as culture, society, community, family, friendships, social networks, and the impact of these factors on individual behavior and well-being.political: At a basic level, politics refers to the activities, actions, and policies used to gain and hold power in a government or rule over a community. It involves decision-making, public affairs, and the process of running governmental organizations. Politics often involves debates, negotiations, and conflict resolution for allocating resources and managing societal issues.</t>
+  </si>
+  <si>
+    <t>downwards: Downwards refers to a social or economic movement from a higher position or status to a lower one. In the context of the paper, downward social mobility implies a shift in one's social class or status to a lower level compared to their origin class.voting: Voting is the act of expressing a choice or preference on a particular matter, typically in the context of political decision-making. It is a fundamental mechanism of democracy where eligible individuals participate in selecting representatives, approving legislation, or making decisions on public issues. Voting can take place in various forms, such as casting a ballot at a polling station, voting online, or participating in a referendum. The outcomes of voting contribute to the determination of public policies, leadership positions, and the overall governance of a society.adulthood: Adulthood is a phase of the human lifespan that typically begins around the ages of 18 to 21 and continues until old age. It is characterized by greater independence, responsibility, and maturity compared to earlier life stages like adolescence. Adulthood is marked by key social roles such as entering the workforce, establishing long-term relationships, starting a family, and taking on societal responsibilities. Moreover, adulthood involves personal growth, development, and potentially achieving important life milestones.sociological: At an intermediate, proficient level, "sociological" refers to concepts, phenomena, or perspectives that pertain to the study of society, social institutions, social relationships, and human interaction within a specific social, cultural, economic, and political context. Sociological analysis often involves examining patterns, structures, and changes in society, as well as understanding the underlying social forces that shape human behavior, relationships, and organization within a given community or society.intergenerational: Intergenerational refers to interactions or phenomena that occur between or across multiple generations within a family or a society. It specifically captures the relationships, dynamics, and influences that exist among individuals from different generations, such as parents, children, and grandchildren. Intergenerational relationships often involve the transfer of knowledge, values, behaviors, and resources from one generation to the next, shaping family traditions, social norms, and patterns of social mobility.social: At an intermediate, proficient level, social refers to interactions and relations between individuals, groups, or institutions within a community, society, or culture. It encompasses the norms, values, beliefs, and customs shared by a group of people, influencing their behavior, choices, and identities. Social dynamics include communication, collaboration, conflict, and cooperation among members of society, shaping social structures, roles, and hierarchies. Social factors can impact various aspects of life, such as education, health, politics, and economics, contributing to social inequalities, mobility, and cohesion within a given population.political: At an intermediate, proficient level, the term "political" refers to activities, actions, and affairs related to governance, public administration, and decision-making processes at various levels of society, including local, national, and international arenas. It encompasses a range of activities, such as political campaigning, policy-making, lawmaking, and administration. Politics also involves the distribution and exercise of power within a society, where different individuals, groups, or institutions may hold varying degrees of authority and control over resources, policies, or decision-making processes. Ultimately, political processes shape the distribution of resources, influence the allocation of benefits and opportunities, and impact the regulation of social activities and behaviors within a society.</t>
+  </si>
+  <si>
+    <t>downwards: In the context of social mobility and the analysis presented in the research paper cited, "downwards" refers to a situation where an individual experiences a decline in their social class position relative to that of their parents. This implies a movement from a higher social class to a lower one. It is pertinent in discussions about social mobility, particularly in examining how changes in social class associations may influence political preferences and voting behavior. The research seeks to understand how downward social mobility impacts individuals' propensity to vote for political parties like the Conservative Party. The paper analyzes the relationship between social origin, social destination, and mobility to assess voting behavior across different stages in adulthood.voting: At an intricate level, "voting" refers to a multi-faceted act of participating in a political process where individuals express their preferences, usually through marking a ballot. This act influences the selection of representatives, the adoption of policies, and the functioning of democratic institutions. Voting can take different forms, such as in general elections, referendums, or other types of collective decision-making processes. It embodies the democratic principle of political participation, allowing individuals to have a say in the governance and direction of their society. The decision to vote is influenced by a myriad of factors, including social, economic, cultural, and personal considerations. Research indicates that voting behavior is shaped by a complex interplay of individual demographics, social background, political beliefs, and experiences.adulthood: At an expert level, adulthood can be defined as a stage of human development characterized by a combination of biological, psychological, and social changes. It is typically marked by reaching physical maturity, achieving cognitive development and emotional stability, and assuming societal roles and responsibilities associated with being an independent, self-sustaining individual. Adulthood can vary across cultures and societies, and it is often defined by legal age thresholds, such as 18 or 21, when individuals are considered to have reached the age of majority and are granted certain rights and responsibilities, including voting, entering contracts, and consuming alcohol. The transition to adulthood is a complex process influenced by various factors, including education, employment, family status, and societal norms.sociological: At an intricate level, "sociological" is an adjective derived from the field of sociology, which is a social science discipline that systematically studies human societies, social interactions, social structures, and institutions. Sociological research uses various methodological approaches to investigate and understand social phenomena, such as social mobility, social stratification, social norms, culture, and social change. The term "sociological" implies a focus on observing, analyzing, and interpreting social patterns, relationships, and dynamics within and among groups of individuals in a given society. It encompasses theoretical perspectives, empirical research, and critical analysis of society and its diverse elements.intergenerational: Intergenerational refers to the relationship or interaction that occurs between different generations within a family or a society. This term highlights the connections, dynamics, and exchanges that take place between individuals from various age groups, typically across multiple generations. It emphasizes the transmission of values, behaviors, knowledge, and resources from one generation to the next, highlighting the continuity and interconnectedness between people of different ages within a family or social context. In the context of the paper, "intergenerational mobility" refers to the movement or change in social status or class position between generations within a family or society.social: In the context of this academic paper, the term "social" is used in conjunction with "social mobility." Social refers to the societal and community-related aspects of an individual's life, encompassing various social structures, interactions, norms, and experiences that are influenced by the broader social environment. Social mobility refers to the movement of individuals between different social classes in society, typically determined by factors such as occupation, income, education, and other indicators of socio-economic status. It reflects the extent to which individuals can change their social position relative to their parents or the social class in which they were born. Therefore, in this context, "social" pertains to the communal, societal, and structural dimensions that impact individuals' mobility within the social hierarchy.political: At an expert level, the term "political" in the context of political science refers to the study of power, governance, and public decision-making within a society or a state. It involves the analysis of political systems, institutions, processes, behavior, and ideologies that shape the distribution of resources, rights, and responsibilities among members of a society. Politics encompasses a wide range of activities, including electoral processes, policy-making, public administration, international relations, and political philosophy.
+Political scientists examine how individuals, groups, and institutions interact and compete to influence government decisions and shape public policies. They study the dynamics of political participation, the formation and implementation of laws and regulations, the functioning of political parties, interest groups, and social movements, as well as the role of media and propaganda in shaping public opinion.
+Overall, politics is a complex and multifaceted field that seeks to understand the mechanisms through which power is exercised, decisions are made, and societies are governed. It plays a central role in shaping the social, economic, and cultural landscape of a nation or a community.</t>
+  </si>
+  <si>
+    <t>clinical, diagnostic, mri, hamburg, robot, diagnosis, imaging, clinicians</t>
+  </si>
+  <si>
+    <t>clinical: Clinical refers to the field of medicine that involves the examination, diagnosis, and treatment of patients in a healthcare setting. Clinical practice involves interactions between healthcare professionals, such as doctors, nurses, and other medical personnel, and patients for the purpose of assessing and managing their health and well-being. In the context of this paper, clinical refers to the setting where the intelligent agentsdiagnostic: Diagnostic refers to the process of identifying a disease or condition based on symptoms, medical history, and various tests and procedures. The goal of diagnosis is to determine the nature and cause of a health issue or disease in order to guide appropriate treatment and care.mri: MRI stands for Magnetic Resonance Imaging. It is a non-invasive medical imaging technique that uses a strong magnetic field and radio waves to provide detailed images of the internal structures of the body. MRI is often used to diagnose and evaluate conditions in the brain, spine, joints, and other parts of the body. It provides high-resolution images that help doctors assesshamburg: Hamburg is a city in Germany, located in the northern part of the country. It is known as a major port city and is the second-largest city in Germany. Hamburg is also a key industrial and cultural center in Germany, with a rich history and vibrant arts scene.robot: A robot is a machine programmed to perform tasks or interact with its environment through autonomous or pre-programmed instructions. Robots can vary widely in complexity and functionality, from industrial robots used in manufacturing to social robots designed for interaction with humans.diagnosis: Diagnosis is the process of determining the nature and cause of a particular condition, illness, or disease by examining the symptoms and medical history of a patient. This process typically involves a careful assessment of various factors, such as physical signs, laboratory tests, imaging studies, and patient information, to arrive at a definitive conclusion about the patient's health condition.imaging: Imaging refers to the process of creating visual representations or reproductions of an object, usually for medical, scientific, or artistic purposes. In the medical field, imaging involves techniques such as X-rays, MRIs, or ultrasounds to create images of the internal structures of the body for diagnostic purposes.clinicians: Clinicians are medical professionals who provide care and treatment to patients. They include doctors, nurses, technicians, and other healthcare professionals who are directly involved in diagnosing and treating patients. Clinicians play a crucial role in the healthcare system and are responsible for making medical decisions and providing medical services to individuals seeking healthcare assistance.</t>
+  </si>
+  <si>
+    <t>clinical: Clinical refers to activities or decisions relating to the diagnosis, treatment, and care of patients within a medical setting or practice. It generally involves direct interaction with patients, medical professionals, and medical data to provide healthcare services and make informed decisions based on medical expertise and scientific evidence.diagnostic: The term "diagnostic" refers to the process of identifying a disease or medical condition based on the signs, symptoms, and test results observed in a patient. In the context of medical diagnosis, diagnostics involve analyzing various data points, such as medical images, laboratory tests, patient history, and physical examinations, to determine the underlying health issue affecting the individual. The goalmri: Magnetic Resonance Imaging (MRI) is a medical imaging technique that uses a strong magnetic field, radio waves, and a computer to generate detailed images of the inside of the body. It is commonly used to visualize internal structures of the body such as organs, muscles, joints, and blood vessels. MRI is a non-invasive and painless imaging modhamburg: In the context of this academic paper, "Hamburg" refers to a location, specifically the city of Hamburg, Germany. This term is used in the conference details of the paper, which states that the research was presented at the 2023 CHI Conference on Human Factors in Computing Systems in Hamburg, Germany. This indicates that the research findings were shared at arobot: A robot is a programmable machine capable of performing tasks autonomously or with minimal human intervention. Robots are typically equipped with sensors, actuators, and processors to perceive and interact with their environment. They can be designed for a variety of applications, including industrial manufacturing, healthcare, exploration, and domestic tasks.diagnosis: Diagnosis is the process of determining the nature or cause of a disease or condition based on signs, symptoms, and medical tests. It involves identifying and categorizing the particular issue or illness a patient may be experiencing. This process is critical in guiding treatment decisions and patient care. A diagnosis is made by evaluating a patient's medical history, conducting physical exams, and oftenimaging: "Imaging" refers to the use of various technologies, such as X-rays, MRI, CT scans, ultrasound, and others, to create visual representations of the inside of the body for diagnostic or therapeutic purposes. The images obtained through imaging techniques help clinicians to visualize internal structures, identify abnormalities, and make informed medical decisions.clinicians: Clinicians refer to healthcare professionals who are involved in providing medical care and treatment to patients. They include physicians, nurse practitioners, physician assistants, and other medical professionals who diagnose, treat, and manage the healthcare needs of individuals. Clinicians may specialize in various fields such as primary care, surgery, oncology, radiology, and more. Their primary role is to</t>
+  </si>
+  <si>
+    <t>cognitive, vacuum, technological, cognition, hamburg, machines, anthropomorphism, conscious</t>
+  </si>
+  <si>
+    <t>cognitive: Cognition refers to the mental process of acquiring knowledge and understanding information, such as learning, memory, perception, and problem-solving. It involves important aspects of thinking, reasoning, and decision-making. Cognitive processes are essential for how we interact with and understand thevacuum: A vacuum is a device that creates a partial vacuum to remove debris or dirt from surfaces such as floors by suction. It typically consists of a motor that generates suction, a filter to trap the debris, and a cleaning head with brushes or other mechanisms to distechnological: At a basic level, technological refers to anything relating to or involving technology. It includes the tools, machines, systems, and techniques that are used to solve problems, perform tasks, or achieve specific goals. Technological advancements are innovations that enhance human capabilities andcognition: Cognition refers to the mental processes that allow individuals to acquire, process, store, retrieve, and act on information. It involves various aspects such as perception, attention, memory, language, problem-solving, decision-making, and reasoning. Cognition plays ahamburg: 'Hamburg' is a city in northern Germany known for its rich history, maritime culture, and architecture. It is a major port city on the Elbe River and is a popular tourist destination.machines: A machine is a device or instrument that uses mechanical or electronic components to perform a specific task. It could be anything from a simple tool like a lever to complex systems like computers or robots. Machines are designed to make work easier, automate tasks, and performanthropomorphism: Anthropomorphism is the attribution of human-like characteristics, behaviors, or emotions to non-human entities, such as animals, objects, or in this case, machines. This concept involves interpreting or perceiving non-human entities in a way that reflectsconscious: Consciousness is a state of being aware of and able to think about one's own existence, sensations, thoughts, and emotions. It involves having subjective experiences, such as feelings, perceptions, and self-awareness. In the context of machine consciousness,</t>
+  </si>
+  <si>
+    <t>cognitive: At an intermediate level, "cognitive" refers to mental processes involved in acquiring knowledge and understanding. In the context of HCI, cognitive processes can include perception, attention, memory, language, problem-solving, decision-making, and reasoning. Understanding how users thinkvacuum: In the context of the research paper, a vacuum refers to a vacuum cleaner, which is a household appliance that uses suction to remove debris from floors or surfaces. In the study, participants were shown a demo of a vacuum robot to explore their perceptions of machinetechnological: Technological refers to anything related to technology, which encompasses the application of scientific knowledge for practical purposes. It involves the development, implementation, and utilization of tools, systems, and methods to solve problems, improve efficiency, and enhance human capabilities. Technological advancementscognition: Cognition refers to the mental processes involved in perceiving, processing, storing, and retrieving information. These processes include thinking, reasoning, problem-solving, memory, attention, language, and decision-making. Cognition encompasses both conscious and unconscious mental activities that enablehamburg: In this context, "Hamburg" refers to the city in Germany where the CHI ’23 conference on Human Factors in Computing Systems is to be held from April 23–28, 2023. This location is relevant to the academic conference mentionedmachines: Machines are devices that use mechanical, electrical, or electronic systems to perform specific tasks. These devices are typically designed and built by humans to automate tasks, increase efficiency, and often make tasks more precise and accurate. Machines can range from simple mechanical tools toanthropomorphism: Anthropomorphism is the attribution of human characteristics, behavior, emotions, or intentions to non-human entities or objects. It involves interpreting or representing non-human entities in a way that humanizes them, making them appear more human-like in their traitsconscious: In the context of the paper, "conscious" refers to the state of being aware, having experiences, feelings, sensations, and awareness of one's own existence. Participants associated consciousness with awareness, emotions, intentions, intelligence, and the capacity to feel,</t>
+  </si>
+  <si>
+    <t>legislators, politicians, political, lobbying, invitation, policymakers, governments, policymaking</t>
+  </si>
+  <si>
+    <t>legislators: Legislators are elected officials who havepoliticians: Politicians are individuals who are elected orpolitical: At a beginner level, "political"lobbying: At a basic level, lobbying refers toinvitation: An invitation is a request or offer topolicymakers: Policymakers are individuals within agovernments: At a very basic level, a governmentpolicymaking: Policymaking refers to the</t>
+  </si>
+  <si>
+    <t>legislators: Legislators are elected officials who arepoliticians: Politicians are individuals who hold public officepolitical: In the context of the study described inlobbying: Lobbying refers to the practice ofinvitation: In this academic study, an "invitationpolicymakers: Policymakers are individuals, typicallygovernments: Governments refer to the political machinery thatpolicymaking: At an intermediate, proficient level,</t>
+  </si>
+  <si>
+    <t>haptic, instrument, interactive, qian, hamburg, tutorials, purdue, prototyping</t>
+  </si>
+  <si>
+    <t>haptic: Haptic refers to the sense of touch. Ininstrument: An instrument is a device or tool used for performing specificinteractive: At its core, "interactive" refers to the capabilityqian: Qian is a name of an author mentioned inhamburg: Hamburg is a city located in northern Germany. Ittutorials: Tutorials are instructional materials or resources that aim to teachpurdue: Purdue University is a prestigious public research universityprototyping: Prototyping is the process of creating preliminary versions or</t>
+  </si>
+  <si>
+    <t>haptic: Haptic refers to the sense of touch, particularlyinstrument: In the context of the paper, an "instrument"interactive: In the context of this research paper, "interactive"qian: Qian refers to Xun Qian, whohamburg: Hamburg is a city in Germany known for its maritimetutorials: Tutorials are instructional materials that provide step-by-step guidancepurdue: Purdue University is a public research university inprototyping: Prototyping is the process of creating a preliminary version</t>
+  </si>
+  <si>
+    <t>recurrent, zhen, vulnerabil, china, imbalanced</t>
+  </si>
+  <si>
+    <t>recurrent: Recurrent here refers to a type of neural network architecture that is capable of processing a sequence of inputs, maintaining a memory of past inputs, and producing an output based on this sequential information. Recurrent Neural Networks (RNNs) are designed to handle data with sequential dependencies, making them useful for tasks like language translation, speech recognition, and time series forecasting.zhen: Zhen is a popular Chinese given name, often used for boys, that means "truth" or "genuine" in Mandarin. It is a common name in Chinese-speaking communities and carries positive connotations related to honesty and sincerity.vulnerabil: A vulnerability refers to a weakness or flaw in a software system that can be exploited by attackers to compromise the security or integrity of the system. In the context of software, vulnerabilities are typically coding errors, configuration mistakes, or design flaws that can potentially lead to security breaches or unauthorized access to a system.china: China is a country located in East Asia. It is known for its rich history, culture, and technological advancements. With a population of over a billion people, China is one of the most populous countries in the world. The country is also known for its contributions to technology, science, and global trade.imbalanced: Imbalanced refers to a condition where the proportions of different classes or categories within a dataset are significantly uneven. In the context of machine learning, this can occur when one class has much more data samples than another, leading to a skewed distribution that can affect the performance of a model.</t>
+  </si>
+  <si>
+    <t>recurrent: Recurrent in the context of machine learning refers to recurrent neural networks (RNNs), which are a type of artificial neural network designed to recognize patterns in sequences of data. Unlike traditional feedforward neural networks, RNNs have connections that create loops in the network, allowing information to persist or be revisited as it flows through the network. This looped structure enables RNNs to process sequential data such as time series, sentences, or audio.zhen: In the context of the paper "Multiclass Classification of Software Vulnerabilities with Deep Learning," Zhen likely refers to Zhen Huang, who is one of the authors of the paper and affiliated with DePaul University in Chicago, Illinois, USA. Zhen Huang is involved in the research and development of the deep learning models used for the multiclass classification of software vulnerabilities. In this context, Zhen is utilized as a proper name to identify the specific individual in the research team.vulnerabil: A vulnerability refers to a weakness or flaw in software or a system that could potentially be exploited by attackers to compromise the security of the system, steal data, disrupt operations, or cause damage. Identifying and addressing vulnerabilities is important for ensuring the security and integrity of software applications and systems. A common example of a vulnerability is a buffer overflow, in which a program writes more data to a buffer than it can hold, potentially allowing an attacker to overwrite critical memory locations with malicious code.china: China is a country located in East Asia, known for its rich history, cultural heritage, and technological advancements. It is the world's most populous country, with a population exceeding 1.4 billion people. China is also one of the largest economies globally and plays a significant role in global trade and commerce. The country has a diverse landscape, ranging from mountains and deserts to rivers and coastlines. As a major global power, China influences international politics, economy, and culture.imbalanced: Imbalanced refers to a condition in a dataset where one class of data is much more prevalent or has more instances than other classes in a classification problem. This imbalance in the distribution of classes can lead to biased model training, where the model may have higher accuracy in predicting the majority class but perform poorly on the minority class. Handling imbalanced datasets is important to ensure fair and accurate machine learning model predictions.</t>
+  </si>
+  <si>
+    <t>forecasting, stock, fusing, prediction, chinese, forecasts, china</t>
+  </si>
+  <si>
+    <t>forecasting: Forecasting is the process of making predictions or estimates of future events or trends based on past and present data. It involves analyzing historical patterns, trends, and relationships to make informed projections about what is likely to happen in the future. Forecasting is commonly used in various fields such as finance, economics, weather, and business planning to anticipate future outcomes and make more informed decisions.stock: Stock, also known as a share or equity, represents ownership in a company. When you buy a company's stock, you are essentially purchasing a small piece of ownership in that company. Stocks are bought and sold on stock exchanges, such as the New York Stock Exchange (NYSE) or Nasdaq. As a stockholder, you have the right to vote on certain company decisions and may also receive dividends, which are a portion of the company's profits distributed to shareholders. Additionally, the value of stocks can fluctuate based on various factors, such as company performance, market conditions, and economic trends.fusing: "Fusing" refers to the process of combining or integrating different elements or data sources to create a unified or cohesive result. In the context of the paper, "fusing multi-granularity data" refers to the combining of data from different frequencies (high-frequency and daily-frequency data) to enhance stock trend prediction models.prediction: Prediction refers to the process of estimating the outcome of a particular event, situation, or phenomenon based on available data and contextual information. In the context of stock trend prediction, for example, it involves using historical stock data and other relevant information to forecast the future movement of stock prices. Predictions are essentially educated guesses or forecasts that are made to help guide decision-making, determine potential outcomes, or anticipate future trends.chinese: Chinese refers to the language spoken by the people of China, which is one of the oldest languages in the world with a rich history and culture. It is a major language spoken by a large population not only in China but also in several other Asian countries, and has a unique writing system based on characters. Chinese language is divided into several dialects with Mandarin being the most widely spoken one. Learning Chinese opens up opportunities to engage with Chinese culture, literature, history, and commerce.forecasts: Forecasts are predictions or estimates about future events or trends based on past patterns, data, or expertise in a particular field. In the context of stock market prediction, forecasts refer to the anticipated future movements in stock prices based on historical data, market trends, and other relevant factors. These predictions aim to guide investment decisions and optimize financial strategies.china: China is a country located in East Asia, known for its vast population, rich history, and cultural heritage. It is the world's most populous country and one of the oldest civilizations, with a recorded history dating back thousands of years. China has a diverse landscape, ranging from bustling modern cities to rural villages, and is known for its unique traditions, cuisine, and art. The country has made significant advances in technology, economy, and global influence in recent decades.</t>
+  </si>
+  <si>
+    <t>forecasting: Forecasting refers to a process of predicting or estimating future trends or events based on historical data and analysis. It involves using statistical models, machine learning algorithms, or other techniques to make projections about what will happen in the future. In the context of stock trend prediction, forecasting would involve using historical stock price and volume data to predict the future movement of stock prices. This process is crucial for decision-making in investment and financial markets, allowing stakeholders to anticipate potential changes and adjust their strategies accordingly.stock: **Stock:** Stock refers to a type of security that signifies ownership in a corporation and represents a claim on the corporation's assets and earnings. Owning shares of stock in a company gives the shareholder rights to participate in the company's profits through dividends and potentially benefit from the company's growth in the form of capital gains. Stocks are bought and sold predominantly on stock exchanges and can signify ownership in a small part of a company or a large corporation. Stocks are categorized based on the company's size, sector, and other factors, and investors buy and sell them with the expectation of generating returns through capital appreciation and dividends.fusing: Fusing refers to the process of combining or integrating different data, features, or models in order to create a unified or comprehensive representation. In the context of this paper, "fusing multi-granularity data" involves merging high-frequency data and daily frequency data to train a model for predicting stock trends. The fusing process aims to leverage the strengths of both types of data to improve the accuracy and performance of the model.prediction: In the context of this paper and the field of stock trend prediction, prediction refers to the process of using historical data and quantitative models to forecast the future movements of stock prices. The goal of prediction is to anticipate the direction and magnitude of price changes in the stock market, allowing investors to make informed decisions about buying, selling, or holding stocks. Prediction typically involves analyzing various indicators, patterns, and trends in data to generate forecasts that can help optimize investment strategies and potentially maximize returns.chinese: At an intermediate, proficient level, the term "Chinese" can refer to multiple concepts:
+1. **Language**: "Chinese" can refer to the Sinitic language family, which includes various dialects such as Mandarin, Cantonese, and others. Mandarin, also known as Standard Chinese, is the most widely spoken of these dialects and is the official language of China.
+2. **People**: "Chinese" can also refer to the people of China, the most populous country in the world. Chinese people are known for their rich culture, history, and diverse traditions.
+3. **Script**: "Chinese" can refer to the writing system used by the Chinese language, which is logographic, meaning that each character represents a word or concept. Chinese characters are used in written Chinese, Japanese, and Korean languages.
+4. **Nationality/Citizenship**: "Chinese" can also refer to individuals who are citizens or nationals of the People's Republic of China, the Republic of China (Taiwan), or Chinese diaspora communities around the world.
+It's important to consider the context in which the term "Chinese" is being used to determine its specific meaning.forecasts: Forecasts are predictions or estimates of future events or trends based on analysis of historical data, current information, and statistical models. In the context of stock market forecasting, forecasts are used to anticipate future stock price movements, allowing investors to make informed decisions about buying, selling, or holding stocks. Forecasts are typically generated by financial analysts, data scientists, or automated algorithms, using techniques such as time series analysis, machine learning, and deep learning to analyze patterns and make predictions about future market behavior.china: At an intermediate, proficient level, "China" is a country located in East Asia. It is the world's most populous country and has a rich history and culture that dates back thousands of years. China is known for its contributions to art, science, and philosophy throughout history. In modern times, China has become a global economic powerhouse with a rapidly growing economy and significant influence on global trade and politics. The country has a diverse landscape, including mountains, plateaus, deserts, and plains, and is home to a vast population with diverse ethnicities and languages. China is known for its unique cuisine, traditional festivals, and historical landmarks such as the Great Wall, the Forbidden City, and the Terracotta Army.</t>
+  </si>
+  <si>
+    <t>sustainability, processor, ino, rebound, carbon, sustainable, eeckhout</t>
+  </si>
+  <si>
+    <t>sustainability: Sustainability refers to the practice of meeting current needs without compromising the ability of future generations to meet their own needs. In simple terms, sustainability involves using resources wisely to ensure they will be available for the long term, without causing harm to the environment or depleting natural resources.processor: A processor, also known as a central processing unit (CPU), is a component of a computer system that executes instructions and carries out operations on data. It serves as the brain of the computer, interpreting and performing tasks according to the instructions provided by software programs. The processor processes information at a very high speed, performing calculations and handling data to enable the computer to run efficiently.ino: InO stands for "in-order," which refers to a type of microarchitecture design in processors. In an in-order processor, instructions are executed in the order they appear in the program, without reordering based on dependencies or other factors that might affect execution efficiency. The opposite of in-order is Out-of-Order (OoO) execution, where instructions are dynamically rearranged to improve performance.rebound: At a basic level, rebound effect refers to the phenomenon where an improvement in efficiency or sustainability may lead to an increase in usage or demand, which could ultimately result in a net increase in environmental impact.carbon: Carbon is a chemical element with the symbol 'C', an atomic number of 6, and is one of the most abundant elements in the universe. In the context of sustainability and environmental impact, carbon can refer to the carbon footprint, which is the amount of greenhouse gases, particularly carbon dioxide, released into the atmosphere as a result of human activities like burning fossil fuels for energy. This carbon footprint contributes to global warming and climate change.sustainable: "Sustainable" refers to the ability to maintain or continue at a certain level over a long period of time without causing harm to the environment, society, or economy. It involves practices and decisions that meet the needs of the present without compromising the ability of future generations to meet their own needs. In simpler terms, sustainable practices are those that can be maintained without depleting natural resources or harming ecosystems.eeckhout: "Eeckhout" is a surname that refers to a person's family name. In this context, "Lieven Eeckhout" is the name of the author of the paper "FOCAL: A First-Order Carbon Model to Assess Processor Sustainability".</t>
+  </si>
+  <si>
+    <t>sustainability: Sustainability refers to the ability of a system or process to persist or continue over time without depleting essential resources or causing significant negative impacts on the environment, society, or economy. It involves balancing economic, social, and environmental considerations to meet the needs of the present without compromising the ability of future generations to meet their own needs. Sustainability aims to promote long-term well-being and resilience while minimizing harm to the planet and its inhabitants.processor: A processor, also known as a central processing unit (CPU), is the key component of a computer system responsible for executing instructions and coordinating the various tasks of the system. It is a complex electronic circuit that performs arithmetic, logic, control, and input/output operations specified by instructions in the software. The processor fetches, decodes, executes, and writes back the instructions to accomplish the desired tasks, making it the "brain" of the computer. Processors come in various types and architecturesino: The term "InO" refers to an in-order core microarchitecture within the context of processor design. In an InO core, instructions are executed in the order they appear in the instruction stream. This means that the processor follows a strict sequence in executing commands, from fetching instructions to completing them. In contrast, out-of-order (OoO) cores, for example, allow instructions to be executed out of sequence for improved performance. The choice between InO and OoOrebound: Rebound effect refers to the phenomenon where an improvement in efficiency or sustainability leads to an increase in demand or consumption, thereby offsetting the intended reduction in environmental impact. It often occurs when new, more efficient technologies are adopted, leading to an increase in usage or consumption that cancels out the initial gains in resource conservation or emission reduction.carbon: Carbon is a chemical element with the symbol C and atomic number 6. It is a key building block of life and is present in all known organic compounds, forming the basis of many essential molecules in living organisms. In terms of sustainability and environmental impact, carbon is also a critical component to consider due to its role in greenhouse gas emissions and its contribution to global warming and climate change. In the context of technology and computing, the carbon footprint refers to the total amount of carbon dioxide and othersustainable: Sustainability revolves around the concept of meeting current needs without compromising the ability of future generations to meet their needs. It encompasses responsible use and preservation of resources, taking into account environmental, social, and economic factors to ensure long-term well-being and prosperity for all. In the context of computing, sustainability involves reducing the environmental impact of technology, including energy consumption, raw material use, and waste generation, to create eco-friendly solutions that are efficient and durable.eeckhout: Lieven Eeckhout is a distinguished researcher and academic specializing in computer architecture and sustainability. He proposed the FOCAL (First-Order Carbon Model to Assess Processor Sustainability) model in his paper, which serves as a parameterized carbon model based on first principles to guide processor design decisions. Eeckhout's work focuses on understanding the environmental footprint of computing systems and how to optimize them for sustainability, considering factors such as embodied and operational emissions, chip area</t>
+  </si>
+  <si>
+    <t>chinese, spine, spinal, segmentation, mri, anatomy, china, lumbar</t>
+  </si>
+  <si>
+    <t>chinese: Chinese refers to diverse languages spoken primarily in China, but it also includes dialects spoken in other parts of Asia. The official language of China is Standard Chinese, known as Mandarin, but China is a linguistically rich country, with many other languages and dialects spoken, including Cantonese, Shanghainese, Hokkien, and more. Chinese characters are an essential aspect of the written language, and there are two character sets: simplified Chinese used in mainland China and traditional Chinese used in Taiwan and Hong Kong. Chinese culture is vast and encompasses various traditions, arts, cuisines, philosophies, and customs that have evolved over thousands of years.spine: Spine: The spine, also known as the vertebral column or backbone, is a crucial part of the human body's skeletal system. It is made up of a series of small bones called vertebrae, stacked on top of each other, which provide structural support and protection to the spinal cord. The spine plays a vital role in maintaining posture, allowing for flexibility and movement, and protecting the delicate spinal cord, which is a part of the central nervous system.spinal: The term "spinal" refers to the spine, which is a stack of vertebrae that extends from the base of the skull to the pelvis. The spine serves as the main support structure for the body and protects the spinal cord, which is a bundle of nerves that carry messages between the brain and the rest of the body. The spinal cord is housed within the vertebral column, or spine, and plays a crucial role in the central nervous system. Injury to the spinal cord can result in severe neurological impairments, highlighting the importance of maintaining a healthy spine.segmentation: Segmentation refers to the process of partitioning a digital image into multiple segments or regions to simplify the representation or make it more meaningful for further image analysis or processing. In the context of medical imaging, segmentation is crucial for identifying and extracting specific anatomical structures or regions of interest from the image data. This process is often carried out using algorithms and techniques to separate different components within the image based on their characteristics such as intensity, texture, or shape.mri: Magnetic Resonance Imaging (MRI) is a non-invasive imaging technique used in medical diagnostics to produce detailed images of the internal structures of the body. It uses a strong magnetic field, radio waves, and computer technology to generate cross-sectional images of the body, providing clear and detailed information about the organs, tissues, and structures within the body. MRI is commonly used to diagnose a wide range of conditions and is especially known for its ability to produce high-resolution images of soft tissues like the brain, spinal cord, and muscles.anatomy: Anatomy is the branch of science that deals with the structure and organization of living organisms, including humans. It involves the study of the physical structures and components that make up an organism, such as bones, muscles, organs, and tissues. In medical contexts, anatomy is often focused on understanding the body's internal structure and how different parts of the body interact with each other to maintain health and function.china: China is a country located in East Asia, known for its rich history, culture, and technological advancements. It is the world's most populous country and has a vast landscape that includes deserts, mountains, and coastlines. China has made significant contributions to art, philosophy, architecture, and technology over thousands of years. The country is also recognized for its economic growth, manufacturing prowess, and global influence in various fields.lumbar: At a beginner level, the term "lumbar" generally refers to the lower part of the spine, specifically the region of the back between the ribs and the pelvis. The lumbar spine consists of five vertebrae (bones) known as L1 to L5, and it plays a crucial role in supporting the upper body and allowing movement such as bending and twisting. Problems in the lumbar spine, such as herniated discs or spinal stenosis, can lead to conditions like low back pain or sciatica.</t>
+  </si>
+  <si>
+    <t>chinese: In the context of the paper "Accurate Segmentation of Lumbar Spine Magnetic Resonance Imaging by Deep Neural Network with Size-Adaptive Loss," the term "Chinese" refers to the nationality of the researchers and authors involved in the study. The term is used to describe individuals affiliated with Chinese research institutions, such as the Chinese Academy of Sciences, who have contributed to the development of the proposed segmentation method for lumbar spine anatomy using deep learning techniques. Additionally, the term can also broadly refer to the Chinese population or Chinese culture.spine: In the context of the paper "Accurate Segmentation of Lumbar Spine Magnetic Resonance Imaging by Deep Neural Network with Size-Adaptive Loss," the term "spine" refers to the vertebral column or backbone composed of individual bones called vertebrae. The spine is a crucial anatomical structure that provides support, stability, and protection for the spinal cord while allowing for movement and flexibility. In this paper, the focus is on the lumbar spine, which is the lower part of the spine that consists of five vertebrae (L1 to L5) and plays a significant role in lumbar anatomy segmentation for medical imaging purposes.spinal: Spinal refers to the vertebral column, or backbone, of the human body, which serves as the central support structure and protective housing for the spinal cord. The spine is composed of a series of vertebrae that are stacked on top of each other and separated by intervertebral discs. It plays a vital role in providing structural support, enabling movement, protecting the spinal cord, and facilitating the transmission of nerve signals between the brain and the rest of the body. The spine is divided into regions such as the cervical spine (neck), thoracic spine (upper back), lumbar spine (lower back), sacral spine (pelvis), and coccyx (tailbone).segmentation: In the context of medical image analysis, "segmentation" refers to the process of partitioning or delineating specific regions or structures of interest within an image. In this case, segmentation aims to identify and outline different anatomical structures or tissues within medical images, such as MRI scans. Accurate segmentation is crucial for various medical applications, including disease diagnosis, treatment planning, and monitoring. Automated segmentation methods, like deep neural networks, can effectively separate these anatomical structures from the background noise and provide detailed and precise mappings of specific regions within the images.mri: MRI stands for Magnetic Resonance Imaging. It is a medical imaging technique that uses a magnetic field and radio waves to create detailed images of the organs and tissues within the body. MRI is a non-invasive procedure and is commonly used in medical diagnosis to visualize internal structures and diagnose various medical conditions.anatomy: Anatomy refers to the branch of biology that deals with the structure of organisms, specifically the arrangement, organization, and relationships of the various parts within the body. In the context of medical image segmentation, anatomy can refer to the detailed structure and composition of different anatomical parts or regions within the body, such as muscles, bones, organs, nerves, and vessels. Accurate segmentation of anatomical structures in medical images is crucial for understanding and diagnosing various health conditions and diseases.china: "China" refers to a country located in East Asia, renowned for its vast population, rich cultural heritage, and rapidly growing economy. China has a long history that dates back thousands of years, with many dynasties and significant cultural advancements. It is known for its diverse landscapes, including mountains, deserts, and rivers. China is one of the world's oldest civilizations and one of the largest countries by land area. It is recognized for its global influence, technological advancements, and political significance on the world stage.lumbar: At an intermediate, proficient level, the term "lumbar" refers to the lower part of the spine, specifically the region between the thoracic vertebrae and the sacrum. The lumbar spine consists of five vertebrae and is responsible for providing support to the upper body, bearing the weight of the spine, and allowing movements such as bending and twisting. In medical contexts, "lumbar" often refers to conditions, structures, or procedures related to this particular part of the spine.</t>
+  </si>
+  <si>
+    <t>integrated, cca, ingest, sapan, bioinformatics, sequenced, genome, ensembles, genomics</t>
+  </si>
+  <si>
+    <t>integrated: Integrated refers to the process or result of combining or merging different elements or components into a unified or cohesive whole. In the context of single-cell RNA sequencing (scRNA-seq) datasets, integration typically refers to the blending of data from multiple sources, such as different tissue samples or sequencing platforms, to create a unified dataset for analysis. The goal of integration is to remove technical variations and harmonize the data to facilitate accurate analysis and interpretation.cca: CCA stands for Canonical Correlation Analysis. It is a statistical technique used to identify and quantify the relationships between two multivariate sets of variables. In the context of single-cell RNA sequencing data integration, CCA can help to identify shared information between different datasets and reduce the influence of technical variations, known as batch effects.ingest: **Ingest** in the context of single-cell RNA sequencing (scRNA-seq) data refers to a method or process used for integrating multiple datasets. In this paper, "Ingest" is a specific integration method implemented in this study alongside other methods like CCA, fastMNN, Harmony, SCTransform, and BBKNN. The Ingest integration method aims to mix cells from different sources while still preserving their distinct biological characteristics. The method helps to overcome technical variations among datasets, enabling the combined analysis of diverse data sets for scRNA-seq studies.sapan: At a novice level, "Sapan" is a proper noun that usually refers to a person's name. It does not have a specific generic dictionary definition.bioinformatics: Bioinformatics is a field that combines biology, computer science, and information technology to analyze and interpret biological data. It involves developing methods and software tools to understand biological processes, particularly at the molecular level. Bioinformatics is used for tasks such as DNA sequence analysis, protein structure prediction, evolutionary studies, and gene expression analysis.sequenced: At a basic level, "sequenced" refers to the process of determining the order of nucleotides (the building blocks of DNA) in a DNA or RNA molecule. In the context of single-cell RNA sequencing (scRNA-seq), "sequenced" means that the genetic material from individual cells has been analyzed to identify which genes are active and how they are expressed within those cells. This process provides valuable insights into the biology of individual cells and their functions within tissues and organisms.genome: At a basic level, a genome is the complete set of genetic material (DNA) in an organism. This genetic material contains instructions for the development, growth, and functioning of an organism. The genome is organized into structures called chromosomes, which contain genes that encode specific traits. The study of genomes helps scientists understand how different genes contribute to various biological processes and characteristics of an organism.ensembles: In the context of machine learning, ensembles are combinations of multiple models, typically of the same type or different types, that work together to improve the overall predictive performance beyond what each individual model can achieve. Each model within an ensemble contributes its own predictions, and the final prediction is often determined through a voting or averaging mechanism across the individual predictions. Ensembles are widely used in machine learning to enhance predictive accuracy, reduce overfitting, and increase robustness.genomics: Genomics is a field of molecular biology that studies the structure, function, evolution, and mapping of an organism's complete set of DNA, known as its genome. This comprehensive analysis involves understanding the genetic material of an organism, including the sequences of DNA and genes, as well as the interactions between various elements of the genome. Genomics plays a vital role in areas such as genetics, personalized medicine, evolutionary biology, and biotechnology.</t>
+  </si>
+  <si>
+    <t>integrated: In the context of single-cell RNA sequencing (scRNA-seq) data, "integrated" refers to the process of combining multiple datasets originating from different biological samples, donors, sequencing centers, or sequencing platforms. Integrating multiple scRNA-seq datasets is crucial for increasing the statistical power of data mining and creating comprehensive cell atlases. The aim of integration methods is to remove technical variations due to batch effects and merge biologically similar cells while separating biologically dissimilar cells within the integrated data. The process of integration involves optimizing for both goals simultaneously, which can be challenging due to the complex technical variations in sequencing protocols and differences in biological heterogeneity across datasets. By integrating datasets, researchers can obtain a unified view of cellular gene expression profiles across various conditions or tissues.cca: CCA stands for Canonical Correlation Analysis. Canonical Correlation Analysis is a multivariate technique used to identify and analyze the relationships between two sets of variables. It aims to find linear combinations of variables in two datasets that have the highest possible correlation with each other. By identifying these linear combinations, CCA helps in uncovering patterns, relationships, and associations between variables from different datasets. In the context of single-cell RNA-sequencing data integration, CCA is used as an integration method to align the gene expression profiles of cells from different datasets for downstream analysis.ingest: **Ingest**: 
+In the context of single-cell RNA sequencing (scRNA-seq) data integration methods, "Ingest" is a method used to integrate high-dimensional scRNA-seq datasets from different biological samples, donors, sequencing centers, or sequencing platforms. Ingest performs integration using batches of data and reference points from the first batch, followed by dimensional reduction techniques such as principal component analysis (PCA) and embedding methods like Uniform Manifold Approximation and Projection (UMAP). The Ingest method aims to align the datasets to remove technical variations and enhance the interpretability of the integrated data for downstream analyses such as clustering and cell type identification.sapan: As an AI language model, I don't have personal information about individuals. In the context of the text, "Sapan" appears to be a person's name and might not have a specific technical meaning in the domain of machine learning or bioinformatics. It seems to refer to one of the authors of the research paper "An Ensemble Machine Learning Approach for Benchmarking and Selection of scRNA-seq Integration Methods." If you are looking for a general definition of "Sapan" as a name, it is a masculine given name that originates from Sanskrit and can mean "bridge" or "overpass".bioinformatics: Bioinformatics is an interdisciplinary field that combines biology, computer science, statistics, and mathematics to analyze and interpret biological data. It involves the development and application of computational tools and techniques to extract meaningful information from biological datasets, such as DNA sequences, protein structures, and gene expression profiles. Bioinformatics plays a crucial role in genomics, proteomics, evolutionary biology, and other areas of life sciences by enabling researchers to study complex biological processes at a molecular level.sequenced: Sequenced in the context of single-cell RNA sequencing (scRNA-seq) refers to the process of determining and recording the order of the nucleotide bases in a DNA or RNA molecule from individual cells. This sequencing process allows researchers to analyze the expression profile of genes in individual cells, providing insights into the biology and function of those cells.genome: At an intermediate, proficient level, a genome refers to the complete set of genes or genetic material present in an organism that includes both the coding sequences that provide instructions for making proteins and non-coding DNA sequences. The genome of an organism is typically stored in the form of DNA molecules in the nucleus of eukaryotic cells or in the cytoplasm of prokaryotic cells. The genome contains all the information necessary for the growth, development, and functioning of an organism, and it determines the traits and characteristics of an individual. Genomes are fundamental to the inheritance and transmission of genetic information across generations.ensembles: In the context of machine learning and data analysis, an ensemble refers to a technique or method that combines multiple models or algorithms to improve the predictive performance or robustness of the system. Ensembles are based on the principle that aggregating the predictions of multiple models can often produce more accurate and stable results than any individual model alone. 
+Ensemble methods typically involve training multiple models (often referred to as "base learners") on the same data and then combining their output in some manner to provide a final prediction or decision. Popular ensemble techniques include bagging, boosting, and stacking, which each have different ways of combining the base learners. 
+Ensembles are commonly used in various machine learning tasks, including classification, regression, clustering, and anomaly detection, among others. They are particularly effective when the individual models have complementary strengths and weaknesses, as combining them can help mitigate the shortcomings of any single model and result in more robust and reliable predictions.genomics: Genomics is a field of biology that focuses on the study of an organism's complete set of DNA, known as its genome. This includes the structure, function, evolution, and mapping of genomes. Genomics plays a crucial role in understanding how genes function, how they interact with each other, and how variations in the genetic code can lead to differences in traits and diseases. Genomics also involves the use of computational tools and technologies to analyze DNA sequences, identify genes, and study genetic variations across individuals or populations.</t>
+  </si>
+  <si>
+    <t>sociologists, sociological, upadhyay, research, qualitative, sociology, harvey, interview</t>
+  </si>
+  <si>
+    <t>sociologists: Sociologists are scholars who study society, social institutions, and human behavior within social contexts. They utilize various research methods to analyze social interactions, social structures, and social patterns with the aim of understanding how society operates and influences individuals and groups. Sociologists often focus on topics such as inequality, social change, culture, and social norms to gain insights into the complexities of human behavior and society as a whole.sociological: "Sociological" refers to anything related to sociology, which is the scientific study of society, social interactions, and social behavior. It involves analyzing social structures, institutions, cultures, and processes to better understand how individuals and groups interact within a society.upadhyay: At a beginner level, Upadhyay is a last name that is commonly found in the Indian subcontinent. It is often used as a surname for individuals of Indian or Nepalese origin. In this specific context, the surname "Upadhyay" may refer to an individual who has this particular last name.research: Research is a systematic and organized process of inquiry that seeks to gain new knowledge, insights, or understanding about a specific topic or issue. This process typically involves identifying a research question or problem, collecting and analyzing data, drawing conclusions based on evidence, and communicating findings to contribute to existing knowledge in a particular field. Research can be conducted using various methods, such as experiments, surveys, interviews, observations, or literature reviews, and is fundamental to advancing knowledge and addressing unanswered questions.qualitative: Qualitative research is a type of research methodology that focuses on understanding a phenomenon from the perspective of individuals being studied. It involves exploring attitudes, behaviors, and experiences through methods such as interviews, observations, and analysis of textual data. Qualitative research aims to uncover the depth and richness of human experiences, providing insights into complex social phenomena.sociology: Sociology is the study of society, social behavior, and social institutions. It examines how individuals interact with each other within a society, as well as how larger social structures influence human behavior. Sociology seeks to understand patterns in social relationships, group dynamics, cultural norms, social inequalities, and the impact of various social factors on individuals and communities. It uses research methods and theories to analyze and interpret social phenomena in order to gain insight into the complexities of human society.harvey: In the context of the provided research paper, "Harvey" refers to Orlanda Harvey, who is one of the authors of the paper. Orlanda Harvey is a Social Work Senior Lecturer at Bournemouth University with research interests in image and performance-enhancing drug (IPED) use, substance use, domestic violence and abuse, well-being, leadership, and reflective practice.interview: An interview is a research method where a researcher engages with a participant or a group of participants to gather information, insights, or perspectives on a specific topic or research question. Interviews can be conducted in various formats, such as face-to-face, over the phone, through video calls, or via online platforms. The purpose of an interview is to gather qualitative data through a structured or semi-structured conversation with the participant(s).</t>
+  </si>
+  <si>
+    <t>sociologists: Sociologists are social scientists who study human society, social relationships, and social institutions. They analyze the ways in which individuals and groups interact within a given social context. Sociologists employ various research methods to investigate social phenomena, such as surveys, interviews, observations, and statistical analysis. Their goal is to understand patterns of behavior, social structures, and societal changes, and to generate knowledge that can inform social policies and improve our understanding of society.sociological: At an intermediate, proficient level, the term "sociological" refers to the study of society, social structures, social behavior, and social interactions. It involves examining the ways in which individuals are influenced by broader social forces, institutions, cultures, and norms, and how they, in turn, shape society. Sociology seeks to understand social patterns, inequalities, power dynamics, and the complexities of human relationships within different social contexts. It utilizes various methodologies to investigate social phenomena and aims to generate knowledge that contributes to our understanding of society and informs social policies and practices.upadhyay: Upadhyay is a last name commonly found in Indian culture. In the context of the academic paper referenced, Upadhyay likely refers to one of the authors, Upadhyay UD, who may be associated with the research or data collection methods discussed in the paper. Upadhyay could also refer to a location, surname, or other identifier within the specific context of the paper.research: Research is a systematic investigation, study, or exploration conducted to discover, interpret, or develop new knowledge, solutions, or theories related to a specific topic or question. Research often involves the collection and analysis of data, which is used to generate findings or insights that contribute to the existing body of knowledge in a particular field or discipline. The purpose of research is to deepen understanding, solve problems, or advance knowledge and understanding in a systematic and organized manner.qualitative: Qualitative research is a type of research methodology that aims to gather non-numerical data and explore phenomena in-depth to understand complexities, meanings, and experiences. It often involves gathering information through open-ended interviews, observations, focus groups, or written documents. Qualitative research aims to provide rich and detailed descriptions of the subject under study, allowing for a nuanced understanding of social processes, behaviors, and contexts. The data collected in qualitative research is typically analyzed thematically to identify patterns, themes, and insights, rather than using statistical techniques common in quantitative research.sociology: Sociology is a social science discipline that studies human society, social behavior, and the institutions that shape and are shaped by social interactions. Sociologists use research methods to investigate social phenomena, patterns, and relationships, seeking to understand how societies are organized, how social norms and values develop, how groups interact, and how social structures impact individuals and communities. Through analysis and interpretation of data, sociologists aim to uncover the underlying dynamics of social life and contribute to our understanding of complex social issues and trends.harvey: At an intermediate, proficient level, the term "Harvey" in the context of the provided academic paper refers to Orlanda Harvey, who is a Social Work Senior Lecturer at Bournemouth University and one of the authors of the paper. Orlanda Harvey conducts research in the field of image and performance-enhancing drug (IPED) use, particularly focusing on anabolic androgenic steroid (AAS) use. Her research interests include substance use, domestic violence and abuse, well-being, leadership, and reflective practice. Orlanda Harvey's contributions to the paper revolve around the exploration of different communication tools for conducting interviews with hard-to-reach populations such as substance users.interview: An interview is a systematic method of data collection in qualitative research, where a researcher asks predetermined questions to participants to gather information, opinions, or insights on a specific topic. Interviews can be conducted in person, over the phone, via video calls, or through written communication platforms. The goal of an interview is to establish rapport with the participant, elicit detailed responses, and generate rich qualitative data for analysis. It is an essential tool for exploring individual perspectives, experiences, and behaviors within a research study.</t>
+  </si>
+  <si>
+    <t>qubit, drs, seoul, fowler, quantum, republic, qcp, qci, korea</t>
+  </si>
+  <si>
+    <t>qubit: A qubit, short for quantum bit, is the fundamental unit of quantum information. In quantum computing, qubits can represent both a 0 and a 1 at the same time due to a property called superposition, unlike classical bits which can only be 0 or 1. This ability to be in multiple states simultaneously allows for the potential of quantum computers to process vast amounts of data and perform complex calculations much faster than classical computers.drs: At a novice level, DRs can refer to "dilution refrigerators," which are systems used in quantum computing to cool physical qubits to extremely low temperatures. These refrigerators are crucial for maintaining the conditions necessary for quantum operations to occur accurately.seoul: Seoul is the capital and largest city of South Korea. It is a vibrant metropolis known for its modern skyscrapers, high-tech subways, pop culture, and historic palaces.fowler: At a beginner level, "Fowler" can refer to Jerry M. Fowler, a researcher and scientist in the field of quantum computing who has made significant contributions to the development of quantum technologies. Jerry M. Fowler has worked on various aspects of quantum computing, including the design of quantum processors, qubit readout techniques, and error detection methods. His work has advanced the field of quantum computing and helped pave the way for the development of more powerful quantum computers.quantum: Quantum refers to the branch of physics that deals with phenomena on a very small scale, such as particles like atoms and photons. It involves principles such as superposition, entanglement, and uncertainty, which are different from classical physics and are used in quantum computing and quantum mechanics.republic: At a basic level, a republic is a form of government where the country is considered a public matter, not the private concern or property of rulers. In a republic, the head of state is an elected or appointed official, not a monarch. The people in a republic either directly or indirectly have a say in who represents them and makes decisions on their behalf.qcp: QCP stands for Quantum Control Processor. It is a crucial component in a quantum computer system that is responsible for orchestrating and controlling the operations of the qubits, which are the fundamental units of quantum information processing. The QCP manages tasks such as error correction, gate operations, and quantum state measurements necessary for the functioning of a quantum computer.qci: At a beginner level, QCI stands for Quantum Control Infrastructure. It refers to the hardware and software systems that control and manage the operations of a quantum computer, including qubit manipulation, error correction, measurement, and other processes necessary for quantum computation. The QCI is essential for running quantum algorithms and ensuring the accuracy of quantum computations on a quantum computer.korea: Korea is a country in East Asia, known for its rich history, culture, and technological advancements. It is divided into two distinct countries: North Korea and South Korea. South Korea has made remarkable progress in various fields, including technology, entertainment, and economy, earning the nickname "The Miracle on the Han River." It is home to K-pop, Korean cuisine, traditional arts like hanbok, and modern architecture. The country has a strong emphasis on education and innovation and is a prominent player in the global electronics industry.</t>
+  </si>
+  <si>
+    <t>qubit: In quantum computing, a qubit is the fundamental unit of quantum information. It is analogous to the classical binary bit but can exist in a superposition of both 0 and 1 states simultaneously. This unique property allows qubits to perform computations in quantum computers much faster and more efficiently than classical bits in classical computers. The state of a qubit is described by its quantum superposition and can be manipulated using quantum gates to perform quantum operations and algorithms.drs: In the context of the paper on quantum computing, "DRs" refers to dilution refrigerators. Dilution refrigerators are specialized cooling systems used in quantum computing to reach extremely low temperatures near absolute zero, which are required for the operation of superconducting qubits. These refrigerators are essential for creating and maintaining the low-temperature environment necessary for quantum computation.seoul: Seoul is the capital city of South Korea, known for its modern infrastructure, advanced technology, and vibrant culture. It is a global city with a rich history, economic significance, and is a hub for technology innovation and development. Seoul is a major center for finance, culture, entertainment, education, and research in Asia.fowler: In the context provided in the paper, Fowler refers to Jerry M. Fowler, a researcher who has worked extensively in the field of quantum computing. In the paper, various contributions and works by Jerry M. Fowler have been cited in relation to superconducting qubits, microwave-activated conditional-phase gates, state preservation in superconducting quantum circuits, and the implementation of a strand of a scalable fault-tolerant quantum computing fabric. Jerry M. Fowler's works have made significant contributions to advancing quantum computing research.quantum: Quantum refers to the branch of physics that deals with phenomena occurring at the smallest scales of energy levels of atoms and subatomic particles. In quantum physics, particles behave differently than in classical physics, often exhibiting wave-particle duality and superposition. The field of quantum mechanics seeks to understand and predict the behavior of matter and energy at this quantum scale. In the context of quantum computing, quantum refers to the principles and technologies that utilize quantum effects to perform computation, potentially offering advantages over classical computing in specific tasks.republic: Republic is a form of government where the country is considered a "res publica," which is Latin for "public affair." In a republic, the power resides in the people, who elect representatives to make decisions for them. The elected officials, in turn, are bound by a constitution or laws and are accountable to the people. The key distinction of a republic is the absence of a monarch or hereditary ruling authority, with governing power instead being distributed among elected representatives.qcp: QCP stands for Quantum Control Processor. It refers to the control system in a quantum computer that is responsible for managing and executing operations on the qubits to perform quantum computations. The QCP plays a critical role in coordinating the quantum operations, error correction, and managing the overall quantum computation process.qci: At an intermediate, proficient level, QCI stands for Quantum Control Infrastructure. QCI refers to the set of tools, protocols, and mechanisms that manage and regulate quantum computing devices, including qubits and quantum circuits. QCI is crucial for facilitating the control, programming, and error correction of quantum computers, enabling researchers and developers to operate and optimize quantum algorithms effectively. The development of robust and efficient QCI is essential for advancing quantum computing technologies and realizing practical applications.korea: Korea, officially known as the Republic of Korea, is a country in East Asia located on the Korean Peninsula. It is known for its rich history, culture, and technological advancements. Korea is divided into two distinct sovereign states: South Korea and North Korea. South Korea is a democratic republic with a robust economy, advanced technology, and a vibrant pop culture industry. North Korea, on the other hand, is a secretive dictatorship led by the Kim dynasty. The Korean people share a common cultural heritage and language, known as Korean or Hangul.</t>
+  </si>
+  <si>
+    <t>ape, cryptocurren, fluctuation, detrended, club, currencies, multifractal, correlation</t>
+  </si>
+  <si>
+    <t>ape: In the context of this technical paper discussing NFT markets and collections, the term "ape" mostly refers to NFT collections related to apes, such as Bored Ape Yacht Club or Mutant Ape Yacht Club. These collections feature ape-themed digital art assets that are traded as non-fungible tokens on blockchain platforms. The term "ape" in this context refers to the ape-themed art and collectibles that are part of these NFT collections.cryptocurren: Cryptocurrency is a type of digital or virtual currency that uses cryptography for security. It operates independently of a central authority like a government or a bank. Cryptocurrencies utilize blockchain technology to secure online transactions, with the most popular example being Bitcoin. The blockchain is a decentralized ledger maintained by a network of computers, ensuring transparency and security in transactions. Cryptocurrencies can be exchanged for goods, services, or traditional fiat currencies like the US Dollar.fluctuation: Fluctuation refers to changes or variations that occur in a quantity, value, or occurrence over time, which can either be an increase or decrease from a mean or reference value. Fluctuations can be observed in various aspects, including prices, values, rates, or any other measurable data point that shows variability over specific durations. Fluctuations are often studied to understand patterns, trends, or irregularities in data that may provide insights into the underlying dynamics of a system or a market.detrended: At a basic level, "detrended" refers to the process of removing or filtering out a trend in data, allowing you to focus on the underlying fluctuations or patterns beyond the overall trend. This technique is commonly used to study the intrinsic behavior of time-series data without the influence of long-term trends. It helps to isolate and analyze the variations in the data independent of any overarching trends that may be present.club: In the context of the provided text related to NFT markets, "club" refers to the various collections of non-fungible tokens (NFTs) or digital assets being traded on the Ethereum blockchain that are grouped together to form a community of token owners or enthusiasts. These virtual clubs or collections represent different themes, styles, or creators in the NFT market. Each club typically contains a set of unique NFTs that are grouped together based on common characteristics, original creators, themes, or shared attributes within the digital asset space.currencies: In the context of finance, currencies are units of value issued by governments for trade and commerce within an economy. Currencies are used as a medium of exchange, a store of value, and as a unit of account. They are typically in the form of coins, banknotes, and digital money, and they facilitate transactions between individuals, businesses, and nations. Currencies can be issued and regulated by central banks or monetary authorities. Major currencies include the US Dollar, Euro, Japanese Yen, British Pound, and many others.multifractal: At a beginner level, multifractal refers to a mathematical concept that describes the property of self-similarity found in complex systems, where different parts of the system exhibit different degrees of variability or scaling behavior. In simpler terms, it's a way of quantifying how patterns and fluctuations in a system vary across different scales, revealing a more intricate structure than just a single scale analysis would show.correlation: Certainly! In simple terms, correlation refers to the relationship or connection between two or more variables. Specifically, in the context of data analysis, correlation measures how changes in one variable are associated with changes in another variable. It helps in understanding if there is a pattern, trend, or connection between different factors or datasets. If two variables have a positive correlation, it means they tend to increase or decrease together. Conversely, a negative correlation implies that as one variable increases, the other tends to decrease.</t>
+  </si>
+  <si>
+    <t>ape: In an NFT (Non-Fungible Token) market context, an "ape" typically refers to a person who invests or purchases NFT tokens, especially ape-themed or Ape-related collections like "Bored Ape Yacht Club" or "Mutant Ape Yacht Club." This term usually pertains to someone who engages in the NFT market, dealing with these particular thematic collections or tokens. It may also refer to a collective community within NFTs centered around those ape-themed collections. "Ape" often connotes membership of these communities, interest, or investment in ape-themed NFT assets.cryptocurren: Cryptocurrencies are digital or virtual currencies that utilize cryptography for security and operate independently of a central authority, such as a government or a financial institution. These decentralized digital assets are typically stored in digital wallets and are secured by cryptographic techniques. Transactions made using cryptocurrencies are recorded on a distributed ledger, known as a blockchain, which ensures transparency and immutability. Some well-known cryptocurrencies include Bitcoin, Ethereum, and Litecoin.fluctuation: Fluctuation refers to the variability or changes in a physical quantity, such as price, value, or volume, over time. In the context of financial markets or asset trading, fluctuations typically refer to the changes in the price of an asset, the number of transactions occurring, or other market-related parameters within specific time intervals. The term can also describe the degree of variation or motion observed in a system or data series, reflecting the dynamic nature of the underlying process. Fluctuations can be characterized by various statistical properties, including their magnitude, frequency, and patterns over time.detrended: "Detrended" refers to the process of removing or eliminating trends or systematic patterns from data. This process allows for focusing on the underlying fluctuations and relationships present in the data by removing the effects of long-term trends. Detrending is often used to analyze data that may have inherent trends, making it easier to study the underlying characteristics or dynamics of the data without the influence of any long-term changes.club: In the context of financial markets, a "club" refers to a grouping or collection of assets, stocks, cryptocurrencies, or commodities that share certain characteristics or exhibit similar behavior in terms of pricing, trading volumes, or other relevant market metrics. Clubs can represent clusters of related assets, industries, or market sectors that may show correlated movements or behaviors in response to various market conditions or events. In this case, a club in the NFT market could refer to a group of non-fungible token collections that exhibit some form of collective behavior or correlation in their market performance.currencies: Currencies are standardized units of monetary value that are used as a medium of exchange in trade and commerce. They are issued by governments or central banks and are accepted in exchange for goods, services, or to settle debts. Currencies play a vital role in the functioning of economies by facilitating transactions, determining exchange rates, and serving as a store of value. Major currencies like the U.S. dollar, Euro, Japanese Yen, and British Pound are widely used in global financial markets.multifractal: In the realm of financial analysis and the study of complex systems, particularly concerning the behavior of markets, "multifractal" refers to a phenomenon where a system displays varying degrees of fractal organization across different scales or time periods. In the context of time series data, such as market fluctuations, this multifractal behavior suggests that the data exhibits self-similarity across multiple temporal resolutions, indicating the presence of fractal-like structures at different scales. The fractal dimension of the data varies, implying a multifaceted or hierarchical structure rather than a singular fractal dimension. Multifractal analysis allows for a more nuanced understanding of the underlying dynamics and correlations present in complex systems and financial markets.correlation: In the context of data analysis, correlation refers to the statistical measure that quantifies the degree to which two sets of data points move in relation to each other. It indicates whether there is a relationship between the variables and how strong that relationship is. A positive correlation suggests that when one variable increases, the other also tends to increase. On the other hand, a negative correlation indicates that when one variable increases, the other tends to decrease. The correlation coefficient is a numerical value that ranges from -1 to 1, with values closer to 1, -1, or 0 suggesting stronger positive, negative, or no correlation, respectively.</t>
+  </si>
+  <si>
+    <t>clinical: "clinical" refers to the areas pertaining to or involving direct patient care, diagnosis, treatment, and management of medical conditions. It encompasses the application of medical knowledge and expertise to evaluate, diagnose, and treat patients in a healthcare setting. In this context, the term can also refer to the practical application of medical theories and concepts in a real-world healthcare environment.diagnostic: Diagnostic refers to the process of identifying a particular disease or condition in an individual based on the symptoms, medical history, physical examination, and various diagnostic tests. In the context of the medical domain, diagnostics may involve imaging studies, laboratory tests, and other assessments to confirm or rule out a medical condition. The goal of diagnostics is to accurately determine the cause of a patientmri: Magnetic Resonance Imaging (MRI) is a non-invasive medical imaging technique used to visualize detailed internal structures of the body. It utilizes a strong magnetic field and radio waves to create detailed images of organs, tissues, and other anatomical structures. MRI is particularly useful in diagnosing a variety of medical conditions in areas such as the brain, spinal cordhamburg: The term "Hamburg" in this context refers to the location where the CHI '23 conference on Human Factors in Computing Systems is taking place from April 23-28, 2023. The city of Hamburg is located in Germany and is known as a significant port city and a major commercial hub.robot: A robot, in the context of intelligent agents, can be defined as an autonomous machine that can perform tasks or actions with varying degrees of independence. The term "robot" typically refers to a physical device that can sense, plan, and act in its environment. Robots often utilize sensors to collect data about their surroundings, algorithms to process this data and make decisions, anddiagnosis: Diagnosis is the process of identifying a disease or condition by examining and analyzing the symptoms presented by a patient, along with medical history, physical examinations, laboratory tests, and medical imaging. In a medical context, a diagnosis involves determining the underlying cause of a patient's illness or health condition in order to recommend appropriate treatment. It is a critical step in the patient careimaging: Imaging in the medical field refers to the visualization of internal body structures and organs using various techniques such as X-rays, ultrasounds, MRI, CT scans, and other imaging modalities. These images help in diagnosing diseases, monitoring treatment progress, and guiding medical procedures. The process involves capturing and creating detailed visual representations of the body's internal anatomy to aidclinicians: Clinicians are healthcare professionals who work directly with patients to provide medical care, diagnosis, treatment, and management of various health conditions. They include doctors, nurses, physicians, surgeons, therapists, and other specialized practitioners who have received advanced training in specific areas of healthcare. Clinicians are trained to assess, diagnose, and treat patients based on their medical knowledge, expertise,</t>
+  </si>
+  <si>
+    <t>haptic: At an expert level, the term "hapticinstrument: In the context of the paper, an instrument refers tointeractive: In the context of this paper, "interactive" refersqian: Qian is a common Chinese surname, but inhamburg: Hamburg is a renowned seaport city in northerntutorials: Tutorials are educational materials or guides that provide step-bypurdue: Purdue University, located in West Lafayette,prototyping: Prototyping is the process of creating a preliminary model</t>
+  </si>
+  <si>
+    <t>cognitive: In the context of this paper, "cognitive" refers to mental processes and activities related to knowledge acquisition, reasoning, memory, attention, language, and decision-making. These processes involve the interaction of various components within the brain, leading to higher-order thinkingvacuum: Given the context of the study on machine consciousness, the term "vacuum" refers to a robot vacuum cleaner, a type of autonomous robotic device that is designed to clean floors. In this study, the vacuum robot displayed motion and limited interaction, potentially promptingtechnological: At an intricate level, "technological consciousness" refers to the attribution of conscious experience or awareness to technologies or artificial systems. It involves the perception that machines or systems have subjective experiences, thoughts, emotions, or other qualities typically associated with human consciousness. Thecognition: Cognition refers to the mental processes involved in acquiring, processing, storing, and retrieving information. These processes include perception, attention, memory, language, problem-solving, reasoning, and decision-making. Cognitive processes are essential for various aspects of human behavior, suchhamburg: Certainly! While the term "Hamburg" typically refers to the city in Germany, in the context of the academic paper, "Hamburg" is likely referring to the location where the CHI '23 conference on Human Factors in Computing Systems is taking placemachines: In the context of the paper "Do You Mind? User Perceptions of Machine Consciousness," machines refer to technological devices or systems that exhibit functional capacities typically attributed to mechanical automation or electronic computation. These machines can range from physical entities like a vacuum robot toanthropomorphism: Anthropomorphism is the attribution of human-like qualities, traits, behaviors, or emotions to non-human entities, such as animals, objects, or even abstract concepts. It involves interpreting or projecting human characteristics onto non-human beings. In the contextconscious: Consciousness refers to the state of being aware of an external object or something within oneself. It involves a subjective experience of perception, sensation, emotion, thought, and interaction with the environment. Consciousness often encompasses the ability to recognize oneself and others,</t>
+  </si>
+  <si>
+    <t>recurrent: Recurrent refers to a type of neural network architecture designed to process sequential data where each neuron feeds its output back into the network as input. This feedback loop allows the network to maintain memory of past inputs, making it ideal for tasks like natural language processing, speech recognition, and time series analysis. Examples of recurrent neural networks include Long Short-Term Memory (LSTM) and Gated Recurrent Unit (GRU), which can capture long-term dependencies in data.zhen: In this specific context of the paper, "Zhen" refers to Zhen Huang, who is one of the authors of the paper "Multiclass Classification of Software Vulnerabilities with Deep Learning." Zhen Huang may hold a specific role or expertise related to the content or research discussed in the paper. The name "Zhen" in this context represents the individual contributor Zhen Huang, although the paper does not provide further details about Zhen's specific role or expertise.vulnerabil: A vulnerability in software is a weakness in the system that can be exploited by attackers to gain unauthorized access, disrupt normal operations, or commit various malicious activities. Vulnerabilities are often the result of coding errors, configuration mistakes, or design flaws that leave software open to cyber threats. Detecting and categorizing vulnerabilities is crucial for understanding potential risks and implementing effective security measures to protect against cyber attacks.china: China is the world's most populous country and an emerging global superpower. With a rich history dating back thousands of years, China has made significant contributions to art, science, philosophy, and technology. In recent decades, China has experienced rapid economic growth, becoming the world's second-largest economy. China is known for its diverse landscapes, vibrant culture, and ancient traditions. However, it also faces challenges such as environmental pollution, political censorship, and human rights issues. At the forefront of technology and innovation, China plays a crucial role in shaping the global economy and geopolitics.imbalanced: "Imbalanced" refers to a situation where the distribution of classes within a dataset is unequal. In the context of machine learning, an imbalanced dataset usually means that the number of instances of one class is significantly higher or lower than the number of instances of another class. An imbalanced dataset can pose challenges for machine learning algorithms, as they may tend to favor the majority class, leading to biases and inaccuracies in predicting the minority class. Techniques such as resampling, weighting classes, or using different evaluation metrics can be employed to address imbalanced datasets in machine learning algorithms.</t>
+  </si>
+  <si>
+    <t>chinese: In the context of the provided paper, the term "Chinese" refers to the country of China, its institutions, and affiliated organizations. It specifically denotes the involvement and collaboration of Chinese research institutions, such as the Chinese Academy of Sciences, in the scientific research and development described in the paper. Additionally, it reflects the academic and scientific contributions made by researchers and medical professionals from various Chinese entities towards advancing the field of medical image segmentation, specifically in the context of lumbar spine MRI analysis using deep neural networks with size-adaptive loss.spine: The spine, or vertebral column, is a crucial part of the human skeletal system that provides structural support, protects the spinal cord, and allows for movement. It is composed of a series of bones called vertebrae, which are stacked on top of one another from the base of the skull to the pelvis. In addition to protecting the delicate spinal cord, the spine also houses and protects the nerves that branch out from the spinal cord to the rest of the body. The spine also plays a vital role in supporting the weight of the body, enabling upright posture, and facilitating movements such as bending, twisting, and flexing.spinal: Spinal anatomy refers to the anatomical structures and components that make up the spinal region of the human body. This includes the vertebrae, spinal cord, nerve roots, intervertebral discs, ligaments, and muscles surrounding the spine. The spine serves as the central pillar of the body and houses and protects the spinal cord, which is a vital component of the nervous system. In medical imaging and diagnosis, accurate segmentation of spinal anatomy is crucial for assessing various spinal conditions, such as degenerative changes, stenosis, disc herniation, and other abnormalities.segmentation: Segmentation in the context of medical image analysis, such as lumbar spine MRI segmentation, refers to the process of partitioning an image into different meaningful regions or objects. In this case, the goal is to accurately separate and delineate specific anatomical structures within the lumbar spine, such as muscles, discs, ligaments, and bones. The purpose of segmentation is to identify and isolate these structures for the assessment, diagnosis, and understanding of spinal conditions and diseases. Accurate segmentation is essential for precise medical image analysis and diagnosis.mri: Magnetic Resonance Imaging (MRI) is a sophisticated medical imaging technique that uses a strong magnetic field and radio waves to generate detailed images of the internal structures of the body. MRI provides high-resolution images of soft tissues, organs, bones, and other anatomical structures in various planes and can reveal information about the functionality and structure of the body's tissues. It is non-invasive and does not involve ionizing radiation, making it a valuable diagnostic tool in the field of medicine.anatomy: In the context of medical imaging and anatomy segmentation, "anatomy" refers to the biological structure and organization of the lumbar spine. It involves the study of the various components within the lumbar region, such as the dural sac, ligamentum flavum, bilateral psoas major muscles, bilateral multifidus muscles, bilateral erector spinae muscles, lamina, and disc. Understanding the anatomy of the lumbar spine is crucial in medical diagnostics and treatment planning, as it provides insights into the morphology and composition of the spine, facilitating the accurate identification and evaluation of potential spinal pathologies.china: China is a country located in East Asia, known for its vast population, diverse culture, rich history, and rapid economic growth. It is governed by the Communist Party of China and has a socialist political system. China has a complex administrative structure comprising provinces, autonomous regions, and municipalities directly under the central government's control. It is one of the world's oldest civilizations, with a history spanning thousands of years.
+China is a global economic powerhouse, with a mixed economy that is one of the largest in the world. It is a major player in international trade, manufacturing, and technology. Chinese culture includes diverse elements such as Confucianism, Taoism, and Buddhism, and has made significant contributions to art, philosophy, literature, and cuisine.
+Geographically, China is known for its diverse landscapes, including mountains, deserts, rivers, and coastlines. It is home to a wide range of flora and fauna, and its natural beauty attracts millions of tourists annually. China's language is predominantly Mandarin, and it has a rich tradition of calligraphy, painting, and opera.
+Overall, China is a multifaceted country with a deep-rooted history, a dynamic economy, and a vibrant culture that continues to influence the world in many ways.lumbar: At an expert level, "lumbar" refers to the lower back region of the spine, specifically the five vertebrae labeled L1 to L5. The lumbar spine plays a key role in supporting the upper body, enabling movement, and protecting the spinal cord. Accurate segmentation of the lumbar spine anatomy, as described in the paper, is essential for diagnosing conditions affecting this region and ensuring effective treatment. The complexity of the lumbar spine anatomy, along with variations in size and structure, poses challenges that require advanced techniques such as deep neural networks with size-adaptive loss as presented in the paper for precise segmentation in medical imaging tasks.</t>
+  </si>
+  <si>
+    <t>forecasting: Forecasting is a complex process of predicting future events or trends based on historical data and patterns. It involves analyzing various quantitative and qualitative factors to make informed predictions about future outcomes. In the context of stock trend forecasting, forecasting refers to the process of predicting the future price movements of stocks based on historical stock data, market conditions, and other relevant information. Forecasting plays a critical role in decision-making, risk management, and strategic planning in various domains such as finance, economics, and business.stock: Stock, also known as shares or equity, represents ownership in a company. When an individual purchases stocks, they acquire a share in the company's ownership and become a shareholder. This ownership comes with benefits such as voting rights and potential dividends, as well as the potential for capital appreciation.
+In financial markets, stocks are traded between investors through exchanges like the New York Stock Exchange (NYSE) or the NASDAQ. The price of a stock is influenced by various factors such as the company's financial performance, market conditions, and investor sentiment. Stock prices are subject to fluctuations based on supply and demand dynamics, economic conditions, and company-specific factors.
+Investing in stocks can provide individuals with an opportunity to participate in the growth of a company and potentially earn returns through capital gains or dividends. However, stock market investing also carries risks, as stock prices can be volatile and subject to market uncertainties.fusing: "Fusing" refers to the process of combining, integrating, or merging multiple elements, components, or sources of data to create a unified entity or system. In the context of the paper "Fusing Multi-Granularity Data for Stock Trend Prediction with Contrastive Pre-training," fusing entails combining high frequency data and daily frequency data to enrich the information used for predictive modeling. The goal is to maximize the information gain and create a more comprehensive data set that can improve stock trend predictions.prediction: Prediction is the act of using available information or data to estimate or forecast future outcomes. In the context of stock trend prediction, it involves using historical data and various predictive models to anticipate the movement of stock prices. Predictions are made based on patterns, trends, and relationships in the data, with the aim of providing insights into potential future market behavior. In the field of quantitative investing, accurate predictions are crucial for making informed investment decisions and maximizing returns. The process of prediction often involves the use of statistical analysis, machine learning algorithms, and domain expertise to generate reliable forecasts.chinese: Chinese refers to the language spoken by ethnic Chinese people in China and around the world. It is a Sino-Tibetan language that consists of various dialects and language varieties, including Mandarin, Cantonese, and others. Chinese characters are logograms that represent words or concepts in the Chinese language and are used in written communication. Chinese is one of the most spoken languages globally and has a rich history that dates back thousands of years. It is known for its tonal system, complex writing system, and diverse cultural significance.forecasts: At an intricate level, "forecasts" in the context of stock trend prediction, as discussed in the paper, refer to the process of using historical data and quantitative modeling to predict future changes in the stock market. This involves analyzing various factors influencing stock prices and trends, such as daily and high-frequency data, relational data, and industry relationships. The paper proposes a contrastive pre-training model that fuses multi-granularity data to improve the accuracy of stock price forecasts. By incorporating features like temporal contrastive learning, spatial contrastive learning, and trending contrastive learning, the model can effectively predict stock price movements by leveraging the dependencies between different data sources and relationships. Forecasts in this context aim to provide investors and stakeholders with insights into potential future stock price fluctuations and trends, thereby aiding in decision-making and risk management in the financial domain.china: At an intricate level, China is a country located in East Asia, known for its long history, rich culture, and diverse geography. It is the world's most populous country and the second-largest economy. China has made significant contributions to literature, art, philosophy, science, and technology throughout its history. The country has various ethnic groups, languages, and traditions, making it a culturally diverse nation. Its political system is a one-party socialist republic, and its economic system includes elements of state capitalism and free-market principles. China plays a prominent role in global affairs, particularly in international trade, diplomacy, and environmental issues.</t>
+  </si>
+  <si>
+    <t>qubit: At an expert level, a qubit refers to the fundamental unit of information in quantum computing, analogous to a classical bit in conventional computing. It is a quantum mechanical system that can exist in multiple states simultaneously due to the principles of quantum superposition. This unique property enables qubits to process and store information in a quantum computer. Qubits can represent both 0 and 1 at the same time, unlike classical bits that can only represent one value at a time. The quantum state of a qubit can be in a superposition, entangled with other qubits, and exhibit quantum coherence, providing a significant advantage in quantum computations.drs: In the context of quantum computing and the paper referenced, "DRs" likely refers to "Dilution Refrigerators." Dilution refrigerators are specialized cooling systems used to reach extremely low temperatures necessary for superconducting quantum devices to operate effectively. These refrigerators are critical for maintaining the qubits at their quantum state and reducing decoherence, enabling quantum computation. Therefore, "DRs" play a crucial role in the operation of quantum computers by providing the necessary cooling infrastructure for the qubits.seoul: Seoul is the capital city of South Korea, a global metropolis known for its technological innovation, economic prowess, and rich cultural heritage. It serves as the political, economic, cultural, and social center of South Korea. Seoul is renowned for its modern skyscrapers, high-tech infrastructure, vibrant entertainment scene, and historic landmarks. The city is a hub for technology and innovation, with numerous research institutions, universities, and tech companies driving advancements in various fields. Seoul is a bustling city that seamlessly blends tradition with modernity, offering visitors a unique experience of East Asian culture and hospitality.fowler: In the domain of quantum computing, specifically related to superconducting qubits, "Fowler" potentially refers to Jerry M. Fowler, a researcher who has made significant contributions to the field. Fowler has been involved in the development of various quantum technologies, including the fabrication and characterization of qubit devices, quantum state preservation techniques, and error detection mechanisms in superconducting quantum circuits. Thus, the term "Fowler" in this context likely alludes to the work and research contributions of Jerry M. Fowler in the realm of quantum computing with superconducting qubits.quantum: Quantum mechanics is a fundamental theory in physics that describes the behavior of matter and energy at very small scales, such as the scale of atoms and subatomic particles. It involves principles such as superposition, entanglement, and wave-particle duality, which depart from classical physics. In quantum mechanics, physical quantities are quantized into discrete values, and the behavior of particles is described using wavefunctions that evolve according to the Schrödinger equation. Quantum mechanics underpins modern technologies like quantum computing and quantum cryptography, offering unprecedented computational power and secure communications.republic: At an advanced level, a republic is a form of government where power is held by the people or their elected representatives, rather than by a monarch or ruling authority. In a republic, the country is considered a public matter, in which the interests of the whole are paramount, and decisions are made through democratic processes. The Constitution or fundamental laws of a republic typically establish the framework for government institutions, outline the rights of citizens, and provide mechanisms for the exercise of political power. Republics may take various forms, such as parliamentary republics, presidential republics, or federal republics, each with its unique system of governance and distribution of powers.qcp: Quantum Computing Processor (QCP) is a specialized processing unit that is designed to handle quantum computations. It consists of circuits and control mechanisms that can manipulate and interact with quantum bits or qubits to perform quantum operations. The QCP plays a crucial role in executing algorithms on a quantum computer, enabling tasks that go beyond the capabilities of classical computers. The QCP's design is geared towards quantum error correction, quantum gate operations, and other quantum-specific tasks required for processing quantum information efficiently and accurately.qci: In the context of quantum computing, QCI stands for Quantum Control Infrastructure. It refers to the hardware and software components that enable the control and manipulation of qubits, which are the quantum analogs of classical bits. The QCI includes the control electronics and microwave components that interact with the qubits, as well as the software algorithms and protocols that coordinate their operations. The QCI is essential for implementing quantum algorithms, performing error correction, and executing quantum computations on quantum computers.korea: Korea is a region located in East Asia, encompassing the Korean Peninsula, which is divided into two separate countries: North Korea and South Korea. South Korea is officially known as the Republic of Korea and North Korea as the Democratic People's Republic of Korea. Korea has a rich cultural heritage, a turbulent history marked by external influences and internal conflicts, and is known for its technological advancements, particularly in the electronics and automotive industries. The Korean people are renowned for their strong work ethic, emphasis on education, and contributions to global culture, including K-pop, K-dramas, and traditional music and arts.</t>
+  </si>
+  <si>
+    <t>sustainability: Sustainability refers to the capacity for a system, such as an organization, community, or ecosystem, to endure and thrive over time without negatively impacting the environment, society, or economy. It involves meeting the needs of the present generation without compromising the ability of future generations to meet their own needs. Sustainability encompasses environmental, social, and economic considerations, striving for balance among these aspects to ensure long-term well-being and resilience for all stakeholders involved. In the context of technology, sustainability entails optimizing resourceprocessor: At an expert level, a processor, also known as a central processing unit (CPU), is a hardware component within a computer system that performs arithmetic, logic, control, and input/output operations specified by instructions in a program. The processor is the "brain" of the computer, responsible for executing instructions, managing data, and coordinating operations within the system. It consists of multiple functional units, such as an arithmetic logic unit (ALU) for performing calculations, registers for temporary storage, aino: InO refers to "in-order" microarchitecture, which represents a design approach where instructions are executed in the order they appear in the program, without any reordering or out-of-order execution. This results in a simpler hardware design compared to out-of-order (OoO) execution, but may lead to inefficiencies as the processor may stall waiting on dependencies between instructions. InO microarchitectures are more commonly found in simpler or low-power processors where performance is not the primaryrebound: In the context of sustainability and environmental impact, the rebound effect refers to a phenomenon where an improvement in efficiency or a reduction in environmental footprint leads to an unintended consequence of increasing demand or usage, consequently offsetting the initial intended benefits. This effect occurs when an increase in efficiency or reduction in resource consumption leads to decreased costs, resulting in increased consumption or usage, which in turn can negate the initial efficiency gains. In essence, the rebound effect highlights the complex dynamics between technological improvements, resource consumption,carbon: In the context of sustainability and environmental impact, carbon refers to the carbon emissions associated with the production, operation, and disposal of computing devices or systems. These emissions primarily come from the burning of fossil fuels during manufacturing processes, energy consumption during use, and transportation. The term "carbon" is used as a proxy to represent the broader concept of greenhouse gas emissions, particularly carbon dioxide (CO2) emissions, which contribute to global warming and climate change. A detailed analysis of carbon footprint includes thesustainable: At an expert level, sustainability can be defined as the capacity to maintain ecological balance by effectively managing resources, implementing responsible practices, and ensuring the well-being of both present and future generations. In the context of computer architecture, sustainability involves optimizing chip area, energy consumption, and power consumption to reduce the environmental impact of computing systems throughout their entire lifecycle. It encompasses considerations of embodied emissions, operational emissions, data uncertainty, and trade-offs between performance and environmental footprint. Achieving sustainability in this domain requireseeckhout: Lieven Eeckhout is a prominent researcher known for his work in computer architecture and sustainability. He is affiliated with Ghent University and has expertise in developing analytical models, first-order approximations, and tools to assess processor sustainability. Eeckhout's contributions in the field include proposing FOCAL, a parameterized carbon model based on first principles, to guide processor design decisions with insights into reducing the environmental footprint. His research also delves into analyzing arch</t>
+  </si>
+  <si>
+    <t>integrated: In the context of single-cell RNA sequencing (scRNA-seq), "integrated" refers to the process of merging or combining multiple datasets obtained from different biological samples, donors, sequencing centers, or sequencing platforms into a unified framework. This integration aims to remove technical variations and batch effects that may arise due to differences in data acquisition, processing, or experimental conditions. Integrated data allow for the comprehensive analysis and comparison of gene expression profiles across diverse datasets and can aid in revealing underlying biological insights such as cell types, states, or regulatory mechanisms.cca: Canonical Correlation Analysis (CCA) is a multivariate statistical technique used to identify patterns of correlation between two high-dimensional datasets. Specifically, CCA aims to maximize the correlation between linear combinations of variables from two datasets, finding pairs of linear combinations, called canonical variates, that are maximally correlated. This method is commonly used in exploratory data analysis, dimensionality reduction, data integration, and feature selection in various fields, including bioinformatics, genetics, and neuroscience.ingest: The term "Ingest" in the context of single-cell RNA sequencing (scRNA-seq) data processing refers to a specific integration method implemented in the Python programming language to merge and harmonize multiple scRNA-seq datasets from different biological samples. The Ingest method involves aligning cells from different batches or datasets using a reference batch as the basis for comparison. It includes preprocessing steps, such as transformation through PCA and UMAP, and integration using a kNN graph to blend the data. The objective of the Ingest integration method is to facilitate the removal of technical variations due to batch effects and ensure that the biological variability within the integrated datasets is well preserved and distinguishable.sapan: "Sapan" is a name of a researcher named Sapan Bhandari in the academic paper referenced. The name "Sapan" itself does not have a specific technical or scientific definition beyond referring to the individual. In a broader sense, it's a proper noun used to identify a person, and in this context, it denotes a specific individual contributing to research in the field of bioinformatics and single-cell RNA sequencing.bioinformatics: Bioinformatics is an interdisciplinary field that combines biology, computer science, information technology, and statistics to analyze and interpret biological data. It involves the development and application of computational methods and tools to store, organize, analyze, and visualize biological information, particularly at the molecular level. Bioinformatics plays a crucial role in processing large-scale biological data, such as genomic sequences, protein structures, and gene expression profiles, to extract meaningful insights that help understand complex biological processes and phenomena. This field is essential for advancing biological research, personalized medicine, drug discovery, and other areas of life sciences.sequenced: Sequencing is a process in molecular biology that involves determining the precise order of nucleotides (such as adenine, cytosine, guanine, or thymine) in a DNA or RNA molecule. In the context of single-cell RNA sequencing (scRNA-seq), sequencing refers to the technique used to reveal the gene expression profiles of individual cells by identifying and quantifying the RNA molecules present in each cell. This process provides valuable insights into the diversity and dynamics of gene expression within a cell population.genome: At an expert level, a genome refers to the complete set of genetic material, including both DNA (deoxyribonucleic acid) and RNA (ribonucleic acid), present in an organism or a cell. The genome carries all the information necessary for an organism's development, growth, functioning, and reproduction. It encompasses all the genetic instructions, encoded in the sequence of nucleotide bases (adenine, thymine, cytosine, and guanine), that are required to build and maintain an organism. The genome contains genes, which are segments of DNA that code for specific proteins or RNAs, as well as non-coding regions that regulate gene expression and determine other aspects of genetic function. The genome is organized into structures called chromosomes, which are located in the cell's nucleus in eukaryotes and in the cytoplasm in prokaryotes. The study of genomes, known as genomics, provides insights into the genetic basis of traits, diseases, and evolution.ensembles: An ensemble in the context of machine learning refers to a technique that combines multiple individual models or learners to improve a predictive performance on a given task. Each individual model may have its own strengths and weaknesses, and the ensemble method leverages the diversity of these models to collectively make more accurate predictions. Ensemble methods often combine different learners, such as decision trees, neural networks, or support vector machines, to create a more robust final predictor. The process of combining the predictions of multiple models typically involves techniques like majority voting, averaging, or more sophisticated algorithms like boosting or bagging. In the context of the paper's discussion on ML-IMS, an ensemble of auditors refers to the use of multiple machine learning classifiers to evaluate the residual variability in integrated single-cell RNA sequencing datasets.genomics: Genomics is a branch of molecular biology that involves the study of the genome, which is the complete set of genes within an organism. It encompasses various techniques, including the sequencing, mapping, and analysis of DNA and RNA, with the aim of understanding the genetic composition and functionality of an organism. Genomics allows researchers to investigate how genetic information is encoded, inherited, and expressed, and how it influences traits, diseases, and evolutionary processes. The field of genomics plays a crucial role in advancing personalized medicine, agriculture, evolutionary biology, and other areas of biological research.</t>
+  </si>
+  <si>
+    <t>ape: In the context of the NFT market discussed in the paper, "ape" refers to collections, specifically ape-themed NFT collections like "Mutant Ape Yacht Club" and "Bored Ape Yacht Club." These collections typically consist of unique digital artwork, often featuring ape characters, that are tokenized and sold as non-fungible tokens (NFTs) on platforms like Ethereum. The term "ape" signifies the focus on this particular theme within the NFT market rather than referencing the animal itself. It represents a collectible subset within the broader world of NFTs.cryptocurren: Cryptocurrency refers to digital or virtual currencies that utilize cryptography for security. They are decentralized and typically operate on a blockchain, which is a distributed ledger enforced by a network of computers. Cryptocurrencies, such as Bitcoin and Ethereum, are created through mining or minting and can be used for various purposes like investments, online transactions, and as a store of value. The underlying technology behind cryptocurrencies, blockchain, enables secure and transparent transactions without the need for a centralized authority.fluctuation: In the context of the NFT market study, the term "fluctuation" refers to the changes or variations observed in the capitalization increments and the number of transactions of different non-fungible token (NFT) collections over time. Fluctuations can be quantified by examining the deviations from the average or typical values of these parameters, reflecting the dynamic and often unpredictable nature of market behaviors. These fluctuations are key indicators of the volatility and movement within the market, and analyzing them helps in understanding the underlying dynamics and patterns that govern the NFT market.detrended: In the context of the research paper on NFT market correlations and noise, "detrended" refers to the process of removing global trends or patterns from the data to isolate and analyze the fluctuations or variations that remain. It involves eliminating overall drifts or systematic effects that could bias the analysis, thereby allowing for a more focused study of the intrinsic structures or relationships within the data. Detrending techniques aim to highlight underlying features by filtering out long-term trends or signals, enabling a closer examination of short-term or irregular components in the time series data.club: In the context of the non-fungible token (NFT) market discussed in the academic paper provided, a "club" refers to a specific NFT collection or series of digital assets that have been minted by a particular entity or individual. These collections are usually themed or cohesive in some way, making them distinct from other collections in terms of artwork, style, or other specifications. Participants in the NFT market may buy, sell, or trade tokens within these clubs or collections, creating a unique market dynamic for each set of NFTs. The term "club" designates a group of related digital assets that are part of the NFT ecosystem.currencies: Currencies are financial instruments or mediums of exchange that are broadly accepted for transactions within a country or a group of countries. Currencies typically serve as a store of value, a unit of account, and a medium of exchange in an economy. These assets can take various forms, such as coins, banknotes, or digital currencies, and are issued by governmental authorities or central banks. Currencies play a vital role in global economics and trade, facilitating commerce, investment, and economic activity. The foreign exchange market enables the conversion of one currency into another, allowing international transactions to take place efficiently.multifractal: In the context of financial markets and time series analysis, "multifractal" refers to a property where the structure of a dataset exhibits varying degrees of scaling in the correlation patterns across multiple time scales. In other words, multifractality implies that the data is characterized by a complex scaling behavior where different components within the dataset exhibit distinct levels of correlation or self-similarity at different scales. This complexity reveals the presence of multiple underlying statistical processes and is often observed in phenomena like stock prices, currency exchange rates, or, in this case, fluctuations in the non-fungible token (NFT) market.
+correlation: In the context of the NFT market analysis in the academic paper, "Correlations versus noise in the NFT market," correlations refer to the degree of mutual relationship or dependency between different NFT collections. These correlations are examined through statistical tools like Pearson coefficients and detrended cross-correlation coefficients to understand how changes in one collection's capitalization or number of transactions might be related to changes in another collection. The strength and nature of correlations help in revealing patterns of connectivity, market influences, and underlying dynamics within the NFT market.</t>
+  </si>
+  <si>
+    <t>sociologists: Sociologists are professionals who engage in the systematic study of human social behavior, groups, institutions, and societies. They conduct research to understand the social structures and processes that shape human interactions, beliefs, norms, and practices. Sociologists use various theoretical frameworks, methodologies, and empirical data to explore issues such as inequality, social change, cultural norms, deviance, social movements, and more. Their work helps to analyze, explain, and often seek solutions to social problems and challenges at individual, community, and societal levels. In addition, sociologists often contribute to public policy development, organizational analysis, and social advocacy based on their research findings.sociological: "Sociological" pertains to the field of sociology, which is a social science that focuses on the study of society, social interactions, social structures, and social behavior. It involves analyzing and understanding human behavior, social relationships, institutions, and organizations in the context of larger social forces, cultural norms, and societal patterns. Sociologists use various research methods, theories, and concepts to examine and explain social phenomena, inequalities, and dynamics within and across different social groups and communities. Their work often involves exploring how social factors shape individual behavior, beliefs, and experiences, as well as how individuals collectively shape and are shaped by society.upadhyay: In the context of the paper referenced, Upadhyay refers to Upadhyay UD, who, along with Lipkovich H, was involved in a study using online technologies to improve diversity and inclusion in cognitive interviews with young people. Upadhyay UD is one of the authors of the study mentioned in the paper, and their work focused on utilizing online technologies to enhance the research process with young participants.research: Research is a systematic investigation aimed at expanding knowledge, understanding phenomena, and discovering new insights in a specific field of study. It involves a structured and methodical process of inquiry that includes formulating hypotheses, collecting and analyzing data, drawing conclusions, and contributing to the existing body of knowledge. Research can be conducted using various methodologies, such as qualitative, quantitative, or mixed methods, depending on the research questions and the nature of the phenomenon being studied. Researchers engage in research to address gaps in knowledge, solve problems, test theories, and advance the understanding of complex issues within their discipline.qualitative: Qualitative research is a methodological approach used in social sciences and other disciplines to gather non-numerical data, such as words, observations, or symbols, in order to understand and interpret social phenomena. In qualitative research, researchers aim to explore, describe, and gain a deeper understanding of complex social issues, behaviors, and experiences through in-depth analysis of the context and meanings within which they occur. Qualitative research methods include techniques such as interviews, focus groups, observations, and textual analysis, and emphasize interpretive and subjective aspects of the data, focusing on the richness and depth of information rather than generalizability. The goal of qualitative research is to generate insights, theories, and understandings that can inform practice, policy, and further research in a particular field.sociology: Sociology is the systematic study of human society and social behavior. It is a social science that utilizes various methods of empirical investigation and critical analysis to understand the complexities of social relationships, structures, institutions, and processes. Sociology examines how societies are organized, how they change over time, and how individuals are influenced by their social contexts. Key concepts in sociology include social norms, social institutions, social stratification, social inequality, culture, deviance, socialization, and social change. Sociologists aim to uncover patterns, trends, and dynamics within societies to generate insights into human interaction and social phenomena.harvey: In the context of the provided academic paper, "Harvey" refers to Orlanda Harvey, who is a Social Work Senior Lecturer at Bournemouth University and one of the authors of the paper. Orlanda Harvey has a research interest in image and performance enhancing drug (IPED) use, particularly focusing on anabolic androgenic steroid (AAS) use. As an author of the paper, Orlanda Harvey contributed to the exploration of using a range of communication tools to interview a hard-to-reach population of substance users, specifically those using unpre-scribed anabolic androgenic steroids.interview: At an expert, intricate level, an interview is a qualitative research method that involves the exchange of information between an interviewer and an interviewee, typically guided by a set of questions. It is a structured conversation aimed at gathering detailed information on a specific topic of interest. Interviews can take various forms, including face-to-face, telephone-based, online audio, live chat, and video calls. 
+In qualitative research, interviews are crucial for understanding participants' experiences, perspectives, beliefs, and motivations. Building rapport, establishing trust, and creating a safe environment for open communication are essential aspects of interviews. The method allows researchers to delve into complex issues, explore participants' narratives, and uncover underlying meanings and emotions.
+Different interview methods offer unique advantages and challenges. For example, face-to-face interviews enable the observation of non-verbal cues and physical appearances, enhancing rapport-building but may compromise anonymity. On the other hand, online interviews provide convenience, wider geographic reach, and potential anonymity but may lack non-verbal cues and face challenges in building rapport. 
+Overall, interviews play a significant role in capturing rich, in-depth qualitative data and insights, making them a valuable tool for researchers in various fields, particularly when exploring hard-to-reach or sensitive populations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,32 +383,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -219,13 +439,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,227 +790,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11E215B-7129-694D-9991-CFA988E7DE66}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="130.5" defaultRowHeight="58" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="160.5" customWidth="1"/>
-    <col min="2" max="2" width="156.83203125" customWidth="1"/>
+    <col min="1" max="1" width="160.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="156.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="130.5" style="1"/>
+    <col min="4" max="6" width="130.5" style="4"/>
+    <col min="7" max="7" width="130.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="58" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="58" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="58" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="58" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="58" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="58" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="58" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="58" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="58" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="58" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="58" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="58" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="58" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" ht="58" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="58" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="58" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="58" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="58" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="58" customHeight="1">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="58" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="58" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
